--- a/lockstep_algorithm/data/Full data.xlsx
+++ b/lockstep_algorithm/data/Full data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ablum\bachelorprojekt\lockstep_algorithm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198D0014-3075-4E76-93B4-DD1C0B4C0C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170995F4-50A6-436E-97E2-92EFD8887CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{F15F8A2E-46BA-487E-9055-5E3E5DA9E31A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{F15F8A2E-46BA-487E-9055-5E3E5DA9E31A}"/>
   </bookViews>
   <sheets>
     <sheet name="Appendix" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="58">
   <si>
     <t>Places</t>
   </si>
@@ -12163,7 +12163,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'XB slow'!$K$3:$K$8</c:f>
+              <c:f>'XB slow'!$M$3:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -12239,7 +12239,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'XB slow'!$L$3:$L$8</c:f>
+              <c:f>'XB slow'!$N$3:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -22148,7 +22148,7 @@
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>509587</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -35560,37 +35560,41 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F5B0B3-5D4D-4178-B673-EB546C251537}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="94" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
       <c r="D1" s="96"/>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="94" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="95"/>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="96"/>
+      <c r="H1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="96"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -35604,28 +35608,34 @@
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -35644,26 +35654,32 @@
       <c r="F3" s="2">
         <v>27273</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="32">
+        <v>113</v>
+      </c>
+      <c r="H3" s="1">
         <v>2504</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="2">
         <v>197670</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J8" si="0">MAX(F3,H3)</f>
+      <c r="J3" s="32">
+        <v>199</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="0">MAX(F3,I3)</f>
         <v>197670</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K8" si="1">F3/J3</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M8" si="1">F3/L3</f>
         <v>0.13797237820610109</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L8" si="2">H3/J3</f>
+      <c r="N3">
+        <f t="shared" ref="N3:N8" si="2">I3/L3</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>200</v>
       </c>
@@ -35682,26 +35698,32 @@
       <c r="F4" s="2">
         <v>109817</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="32">
+        <v>218</v>
+      </c>
+      <c r="H4" s="1">
         <v>38785</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="2">
         <v>2310995</v>
       </c>
       <c r="J4" s="32">
+        <v>399</v>
+      </c>
+      <c r="L4" s="32">
         <f t="shared" si="0"/>
         <v>2310995</v>
       </c>
-      <c r="K4" s="32">
+      <c r="M4" s="32">
         <f t="shared" si="1"/>
         <v>4.7519358544696119E-2</v>
       </c>
-      <c r="L4" s="32">
+      <c r="N4" s="32">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>300</v>
       </c>
@@ -35720,26 +35742,32 @@
       <c r="F5" s="2">
         <v>248078</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="32">
+        <v>322</v>
+      </c>
+      <c r="H5" s="1">
         <v>133496</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="2">
         <v>7135070</v>
       </c>
       <c r="J5" s="32">
+        <v>599</v>
+      </c>
+      <c r="L5" s="32">
         <f t="shared" si="0"/>
         <v>7135070</v>
       </c>
-      <c r="K5" s="32">
+      <c r="M5" s="32">
         <f t="shared" si="1"/>
         <v>3.476882497298555E-2</v>
       </c>
-      <c r="L5" s="32">
+      <c r="N5" s="32">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>400</v>
       </c>
@@ -35758,26 +35786,32 @@
       <c r="F6" s="2">
         <v>442899</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="32">
+        <v>426</v>
+      </c>
+      <c r="H6" s="1">
         <v>315979</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="2">
         <v>15459995</v>
       </c>
       <c r="J6" s="32">
+        <v>799</v>
+      </c>
+      <c r="L6" s="32">
         <f t="shared" si="0"/>
         <v>15459995</v>
       </c>
-      <c r="K6" s="32">
+      <c r="M6" s="32">
         <f t="shared" si="1"/>
         <v>2.8648068773631557E-2</v>
       </c>
-      <c r="L6" s="32">
+      <c r="N6" s="32">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>500</v>
       </c>
@@ -35796,26 +35830,32 @@
       <c r="F7" s="2">
         <v>692464</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="32">
+        <v>529</v>
+      </c>
+      <c r="H7" s="1">
         <v>630470</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="2">
         <v>28075870</v>
       </c>
       <c r="J7" s="32">
+        <v>999</v>
+      </c>
+      <c r="L7" s="32">
         <f t="shared" si="0"/>
         <v>28075870</v>
       </c>
-      <c r="K7" s="32">
+      <c r="M7" s="32">
         <f t="shared" si="1"/>
         <v>2.4664026439786192E-2</v>
       </c>
-      <c r="L7" s="32">
+      <c r="N7" s="32">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>600</v>
       </c>
@@ -35834,30 +35874,36 @@
       <c r="F8" s="5">
         <v>999533</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="32">
+        <v>632</v>
+      </c>
+      <c r="H8" s="4">
         <v>1066631</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="5">
         <v>45772795</v>
       </c>
       <c r="J8" s="32">
+        <v>1199</v>
+      </c>
+      <c r="L8" s="32">
         <f t="shared" si="0"/>
         <v>45772795</v>
       </c>
-      <c r="K8" s="32">
+      <c r="M8" s="32">
         <f t="shared" si="1"/>
         <v>2.1836835613818207E-2</v>
       </c>
-      <c r="L8" s="32">
+      <c r="N8" s="32">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37569,16 +37615,16 @@
     <sortCondition ref="C3:C20"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="K22:M22"/>
     <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37589,7 +37635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1E843B-AFB3-4BF6-9378-10FF72A3078D}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -37645,15 +37691,15 @@
         <v>39</v>
       </c>
       <c r="F2" s="88">
-        <f>E2*2/B2/B2</f>
+        <f t="shared" ref="F2:F33" si="0">E2*2/B2/B2</f>
         <v>0.64462809917355368</v>
       </c>
       <c r="G2" s="82">
-        <f>E2/B2</f>
+        <f t="shared" ref="G2:G33" si="1">E2/B2</f>
         <v>3.5454545454545454</v>
       </c>
       <c r="H2" s="81">
-        <f>2*E2/(B2*(B2-1))</f>
+        <f t="shared" ref="H2:H33" si="2">2*E2/(B2*(B2-1))</f>
         <v>0.70909090909090911</v>
       </c>
       <c r="I2" s="87"/>
@@ -37675,15 +37721,15 @@
         <v>188</v>
       </c>
       <c r="F3" s="90">
-        <f>E3*2/B3/B3</f>
+        <f t="shared" si="0"/>
         <v>0.77685950413223137</v>
       </c>
       <c r="G3" s="85">
-        <f>E3/B3</f>
+        <f t="shared" si="1"/>
         <v>8.545454545454545</v>
       </c>
       <c r="H3" s="86">
-        <f>2*E3/(B3*(B3-1))</f>
+        <f t="shared" si="2"/>
         <v>0.81385281385281383</v>
       </c>
       <c r="I3" s="87"/>
@@ -37705,15 +37751,15 @@
         <v>80</v>
       </c>
       <c r="F4" s="88">
-        <f>E4*2/B4/B4</f>
+        <f t="shared" si="0"/>
         <v>0.44321329639889195</v>
       </c>
       <c r="G4" s="82">
-        <f>E4/B4</f>
+        <f t="shared" si="1"/>
         <v>4.2105263157894735</v>
       </c>
       <c r="H4" s="81">
-        <f>2*E4/(B4*(B4-1))</f>
+        <f t="shared" si="2"/>
         <v>0.46783625730994149</v>
       </c>
       <c r="I4" s="87"/>
@@ -37735,15 +37781,15 @@
         <v>98</v>
       </c>
       <c r="F5" s="88">
-        <f>E5*2/B5/B5</f>
+        <f t="shared" si="0"/>
         <v>0.67820069204152245</v>
       </c>
       <c r="G5" s="82">
-        <f>E5/B5</f>
+        <f t="shared" si="1"/>
         <v>5.7647058823529411</v>
       </c>
       <c r="H5" s="81">
-        <f>2*E5/(B5*(B5-1))</f>
+        <f t="shared" si="2"/>
         <v>0.72058823529411764</v>
       </c>
       <c r="I5" s="87"/>
@@ -37765,15 +37811,15 @@
         <v>218</v>
       </c>
       <c r="F6" s="90">
-        <f>E6*2/B6/B6</f>
+        <f t="shared" si="0"/>
         <v>0.51843043995243765</v>
       </c>
       <c r="G6" s="85">
-        <f>E6/B6</f>
+        <f t="shared" si="1"/>
         <v>7.5172413793103452</v>
       </c>
       <c r="H6" s="86">
-        <f>2*E6/(B6*(B6-1))</f>
+        <f t="shared" si="2"/>
         <v>0.53694581280788178</v>
       </c>
       <c r="I6" s="87"/>
@@ -37795,15 +37841,15 @@
         <v>121</v>
       </c>
       <c r="F7" s="88">
-        <f>E7*2/B7/B7</f>
+        <f t="shared" si="0"/>
         <v>0.3319615912208505</v>
       </c>
       <c r="G7" s="82">
-        <f>E7/B7</f>
+        <f t="shared" si="1"/>
         <v>4.4814814814814818</v>
       </c>
       <c r="H7" s="81">
-        <f>2*E7/(B7*(B7-1))</f>
+        <f t="shared" si="2"/>
         <v>0.34472934472934474</v>
       </c>
       <c r="I7" s="87"/>
@@ -37825,15 +37871,15 @@
         <v>148</v>
       </c>
       <c r="F8" s="88">
-        <f>E8*2/B8/B8</f>
+        <f t="shared" si="0"/>
         <v>0.67120181405895685</v>
       </c>
       <c r="G8" s="82">
-        <f>E8/B8</f>
+        <f t="shared" si="1"/>
         <v>7.0476190476190474</v>
       </c>
       <c r="H8" s="81">
-        <f>2*E8/(B8*(B8-1))</f>
+        <f t="shared" si="2"/>
         <v>0.70476190476190481</v>
       </c>
       <c r="I8" s="87"/>
@@ -37855,15 +37901,15 @@
         <v>481</v>
       </c>
       <c r="F9" s="90">
-        <f>E9*2/B9/B9</f>
+        <f t="shared" si="0"/>
         <v>0.5722784057108864</v>
       </c>
       <c r="G9" s="85">
-        <f>E9/B9</f>
+        <f t="shared" si="1"/>
         <v>11.731707317073171</v>
       </c>
       <c r="H9" s="86">
-        <f>2*E9/(B9*(B9-1))</f>
+        <f t="shared" si="2"/>
         <v>0.5865853658536585</v>
       </c>
       <c r="I9" s="87"/>
@@ -37885,15 +37931,15 @@
         <v>298</v>
       </c>
       <c r="F10" s="90">
-        <f>E10*2/B10/B10</f>
+        <f t="shared" si="0"/>
         <v>0.70868014268727708</v>
       </c>
       <c r="G10" s="85">
-        <f>E10/B10</f>
+        <f t="shared" si="1"/>
         <v>10.275862068965518</v>
       </c>
       <c r="H10" s="86">
-        <f>2*E10/(B10*(B10-1))</f>
+        <f t="shared" si="2"/>
         <v>0.73399014778325122</v>
       </c>
       <c r="I10" s="87"/>
@@ -37915,15 +37961,15 @@
         <v>162</v>
       </c>
       <c r="F11" s="88">
-        <f>E11*2/B11/B11</f>
+        <f t="shared" si="0"/>
         <v>0.26448979591836735</v>
       </c>
       <c r="G11" s="82">
-        <f>E11/B11</f>
+        <f t="shared" si="1"/>
         <v>4.628571428571429</v>
       </c>
       <c r="H11" s="81">
-        <f>2*E11/(B11*(B11-1))</f>
+        <f t="shared" si="2"/>
         <v>0.27226890756302519</v>
       </c>
       <c r="I11" s="87"/>
@@ -37945,15 +37991,15 @@
         <v>2372</v>
       </c>
       <c r="F12" s="90">
-        <f>E12*2/B12/B12</f>
+        <f t="shared" si="0"/>
         <v>0.3715247865925288</v>
       </c>
       <c r="G12" s="85">
-        <f>E12/B12</f>
+        <f t="shared" si="1"/>
         <v>20.991150442477878</v>
       </c>
       <c r="H12" s="86">
-        <f>2*E12/(B12*(B12-1))</f>
+        <f t="shared" si="2"/>
         <v>0.37484197218710491</v>
       </c>
       <c r="I12" s="87"/>
@@ -37975,15 +38021,15 @@
         <v>574</v>
       </c>
       <c r="F13" s="90">
-        <f>E13*2/B13/B13</f>
+        <f t="shared" si="0"/>
         <v>0.478134110787172</v>
       </c>
       <c r="G13" s="85">
-        <f>E13/B13</f>
+        <f t="shared" si="1"/>
         <v>11.714285714285714</v>
       </c>
       <c r="H13" s="86">
-        <f>2*E13/(B13*(B13-1))</f>
+        <f t="shared" si="2"/>
         <v>0.48809523809523808</v>
       </c>
       <c r="I13" s="87"/>
@@ -38005,15 +38051,15 @@
         <v>2865</v>
       </c>
       <c r="F14" s="90">
-        <f>E14*2/B14/B14</f>
+        <f t="shared" si="0"/>
         <v>0.35526071052142105</v>
       </c>
       <c r="G14" s="85">
-        <f>E14/B14</f>
+        <f t="shared" si="1"/>
         <v>22.559055118110237</v>
       </c>
       <c r="H14" s="86">
-        <f>2*E14/(B14*(B14-1))</f>
+        <f t="shared" si="2"/>
         <v>0.35808023997000377</v>
       </c>
       <c r="I14" s="87"/>
@@ -38035,15 +38081,15 @@
         <v>201</v>
       </c>
       <c r="F15" s="88">
-        <f>E15*2/B15/B15</f>
+        <f t="shared" si="0"/>
         <v>0.41831425598335065</v>
       </c>
       <c r="G15" s="82">
-        <f>E15/B15</f>
+        <f t="shared" si="1"/>
         <v>6.4838709677419351</v>
       </c>
       <c r="H15" s="81">
-        <f>2*E15/(B15*(B15-1))</f>
+        <f t="shared" si="2"/>
         <v>0.43225806451612903</v>
       </c>
       <c r="I15" s="87"/>
@@ -38065,15 +38111,15 @@
         <v>508</v>
       </c>
       <c r="F16" s="90">
-        <f>E16*2/B16/B16</f>
+        <f t="shared" si="0"/>
         <v>0.44097222222222227</v>
       </c>
       <c r="G16" s="85">
-        <f>E16/B16</f>
+        <f t="shared" si="1"/>
         <v>10.583333333333334</v>
       </c>
       <c r="H16" s="86">
-        <f>2*E16/(B16*(B16-1))</f>
+        <f t="shared" si="2"/>
         <v>0.450354609929078</v>
       </c>
       <c r="I16" s="87"/>
@@ -38095,15 +38141,15 @@
         <v>203</v>
       </c>
       <c r="F17" s="88">
-        <f>E17*2/B17/B17</f>
+        <f t="shared" si="0"/>
         <v>0.21957815035154138</v>
       </c>
       <c r="G17" s="82">
-        <f>E17/B17</f>
+        <f t="shared" si="1"/>
         <v>4.7209302325581399</v>
       </c>
       <c r="H17" s="81">
-        <f>2*E17/(B17*(B17-1))</f>
+        <f t="shared" si="2"/>
         <v>0.22480620155038761</v>
       </c>
       <c r="I17" s="87"/>
@@ -38125,15 +38171,15 @@
         <v>3528</v>
       </c>
       <c r="F18" s="90">
-        <f>E18*2/B18/B18</f>
+        <f t="shared" si="0"/>
         <v>0.33560047562425682</v>
       </c>
       <c r="G18" s="85">
-        <f>E18/B18</f>
+        <f t="shared" si="1"/>
         <v>24.331034482758621</v>
       </c>
       <c r="H18" s="86">
-        <f>2*E18/(B18*(B18-1))</f>
+        <f t="shared" si="2"/>
         <v>0.33793103448275863</v>
       </c>
       <c r="I18" s="87"/>
@@ -38155,15 +38201,15 @@
         <v>783</v>
       </c>
       <c r="F19" s="90">
-        <f>E19*2/B19/B19</f>
+        <f t="shared" si="0"/>
         <v>0.435</v>
       </c>
       <c r="G19" s="85">
-        <f>E19/B19</f>
+        <f t="shared" si="1"/>
         <v>13.05</v>
       </c>
       <c r="H19" s="86">
-        <f>2*E19/(B19*(B19-1))</f>
+        <f t="shared" si="2"/>
         <v>0.44237288135593222</v>
       </c>
       <c r="I19" s="87"/>
@@ -38185,15 +38231,15 @@
         <v>380</v>
       </c>
       <c r="F20" s="90">
-        <f>E20*2/B20/B20</f>
+        <f t="shared" si="0"/>
         <v>0.27055891776432894</v>
       </c>
       <c r="G20" s="85">
-        <f>E20/B20</f>
+        <f t="shared" si="1"/>
         <v>7.1698113207547172</v>
       </c>
       <c r="H20" s="86">
-        <f>2*E20/(B20*(B20-1))</f>
+        <f t="shared" si="2"/>
         <v>0.27576197387518142</v>
       </c>
       <c r="I20" s="87"/>
@@ -38215,15 +38261,15 @@
         <v>301</v>
       </c>
       <c r="F21" s="88">
-        <f>E21*2/B21/B21</f>
+        <f t="shared" si="0"/>
         <v>0.39579224194608809</v>
       </c>
       <c r="G21" s="82">
-        <f>E21/B21</f>
+        <f t="shared" si="1"/>
         <v>7.7179487179487181</v>
       </c>
       <c r="H21" s="81">
-        <f>2*E21/(B21*(B21-1))</f>
+        <f t="shared" si="2"/>
         <v>0.40620782726045884</v>
       </c>
       <c r="I21" s="87"/>
@@ -38245,15 +38291,15 @@
         <v>304</v>
       </c>
       <c r="F22" s="88">
-        <f>E22*2/B22/B22</f>
+        <f t="shared" si="0"/>
         <v>0.30024691358024691</v>
       </c>
       <c r="G22" s="82">
-        <f>E22/B22</f>
+        <f t="shared" si="1"/>
         <v>6.7555555555555555</v>
       </c>
       <c r="H22" s="81">
-        <f>2*E22/(B22*(B22-1))</f>
+        <f t="shared" si="2"/>
         <v>0.30707070707070705</v>
       </c>
       <c r="I22" s="87"/>
@@ -38275,15 +38321,15 @@
         <v>823</v>
       </c>
       <c r="F23" s="90">
-        <f>E23*2/B23/B23</f>
+        <f t="shared" si="0"/>
         <v>0.37786960514233237</v>
       </c>
       <c r="G23" s="85">
-        <f>E23/B23</f>
+        <f t="shared" si="1"/>
         <v>12.469696969696969</v>
       </c>
       <c r="H23" s="86">
-        <f>2*E23/(B23*(B23-1))</f>
+        <f t="shared" si="2"/>
         <v>0.3836829836829837</v>
       </c>
       <c r="I23" s="87"/>
@@ -38305,15 +38351,15 @@
         <v>650</v>
       </c>
       <c r="F24" s="90">
-        <f>E24*2/B24/B24</f>
+        <f t="shared" si="0"/>
         <v>0.2811418685121107</v>
       </c>
       <c r="G24" s="85">
-        <f>E24/B24</f>
+        <f t="shared" si="1"/>
         <v>9.5588235294117645</v>
       </c>
       <c r="H24" s="86">
-        <f>2*E24/(B24*(B24-1))</f>
+        <f t="shared" si="2"/>
         <v>0.28533801580333629</v>
       </c>
       <c r="I24" s="87"/>
@@ -38335,15 +38381,15 @@
         <v>454</v>
       </c>
       <c r="F25" s="88">
-        <f>E25*2/B25/B25</f>
+        <f t="shared" si="0"/>
         <v>0.27947060634041243</v>
       </c>
       <c r="G25" s="82">
-        <f>E25/B25</f>
+        <f t="shared" si="1"/>
         <v>7.9649122807017543</v>
       </c>
       <c r="H25" s="81">
-        <f>2*E25/(B25*(B25-1))</f>
+        <f t="shared" si="2"/>
         <v>0.28446115288220553</v>
       </c>
       <c r="I25" s="87"/>
@@ -38365,15 +38411,15 @@
         <v>407</v>
       </c>
       <c r="F26" s="88">
-        <f>E26*2/B26/B26</f>
+        <f t="shared" si="0"/>
         <v>0.23384085033036484</v>
       </c>
       <c r="G26" s="82">
-        <f>E26/B26</f>
+        <f t="shared" si="1"/>
         <v>6.898305084745763</v>
       </c>
       <c r="H26" s="81">
-        <f>2*E26/(B26*(B26-1))</f>
+        <f t="shared" si="2"/>
         <v>0.23787258912916423</v>
       </c>
       <c r="I26" s="87"/>
@@ -38395,15 +38441,15 @@
         <v>408</v>
       </c>
       <c r="F27" s="88">
-        <f>E27*2/B27/B27</f>
+        <f t="shared" si="0"/>
         <v>0.11844970242415445</v>
       </c>
       <c r="G27" s="82">
-        <f>E27/B27</f>
+        <f t="shared" si="1"/>
         <v>4.9156626506024095</v>
       </c>
       <c r="H27" s="81">
-        <f>2*E27/(B27*(B27-1))</f>
+        <f t="shared" si="2"/>
         <v>0.11989421099030267</v>
       </c>
       <c r="I27" s="87"/>
@@ -38425,15 +38471,15 @@
         <v>510</v>
       </c>
       <c r="F28" s="88">
-        <f>E28*2/B28/B28</f>
+        <f t="shared" si="0"/>
         <v>0.19140551698254832</v>
       </c>
       <c r="G28" s="82">
-        <f>E28/B28</f>
+        <f t="shared" si="1"/>
         <v>6.9863013698630141</v>
       </c>
       <c r="H28" s="81">
-        <f>2*E28/(B28*(B28-1))</f>
+        <f t="shared" si="2"/>
         <v>0.19406392694063926</v>
       </c>
       <c r="I28" s="87"/>
@@ -38455,15 +38501,15 @@
         <v>607</v>
       </c>
       <c r="F29" s="88">
-        <f>E29*2/B29/B29</f>
+        <f t="shared" si="0"/>
         <v>0.21582222222222222</v>
       </c>
       <c r="G29" s="82">
-        <f>E29/B29</f>
+        <f t="shared" si="1"/>
         <v>8.0933333333333337</v>
       </c>
       <c r="H29" s="81">
-        <f>2*E29/(B29*(B29-1))</f>
+        <f t="shared" si="2"/>
         <v>0.21873873873873872</v>
       </c>
       <c r="I29" s="87"/>
@@ -38485,15 +38531,15 @@
         <v>760</v>
       </c>
       <c r="F30" s="88">
-        <f>E30*2/B30/B30</f>
+        <f t="shared" si="0"/>
         <v>0.17574286044629436</v>
       </c>
       <c r="G30" s="82">
-        <f>E30/B30</f>
+        <f t="shared" si="1"/>
         <v>8.172043010752688</v>
       </c>
       <c r="H30" s="81">
-        <f>2*E30/(B30*(B30-1))</f>
+        <f t="shared" si="2"/>
         <v>0.17765310892940628</v>
       </c>
       <c r="I30" s="87"/>
@@ -38515,15 +38561,15 @@
         <v>2750</v>
       </c>
       <c r="F31" s="90">
-        <f>E31*2/B31/B31</f>
+        <f t="shared" si="0"/>
         <v>0.21755468533681421</v>
       </c>
       <c r="G31" s="85">
-        <f>E31/B31</f>
+        <f t="shared" si="1"/>
         <v>17.29559748427673</v>
       </c>
       <c r="H31" s="86">
-        <f>2*E31/(B31*(B31-1))</f>
+        <f t="shared" si="2"/>
         <v>0.2189316137250219</v>
       </c>
       <c r="I31" s="87"/>
@@ -38545,15 +38591,15 @@
         <v>818</v>
       </c>
       <c r="F32" s="88">
-        <f>E32*2/B32/B32</f>
+        <f t="shared" si="0"/>
         <v>6.1575520343257181E-2</v>
       </c>
       <c r="G32" s="82">
-        <f>E32/B32</f>
+        <f t="shared" si="1"/>
         <v>5.0184049079754605</v>
       </c>
       <c r="H32" s="81">
-        <f>2*E32/(B32*(B32-1))</f>
+        <f t="shared" si="2"/>
         <v>6.1955616147845186E-2</v>
       </c>
       <c r="I32" s="87"/>
@@ -38575,15 +38621,15 @@
         <v>1025</v>
       </c>
       <c r="F33" s="89">
-        <f>E33*2/B33/B33</f>
+        <f t="shared" si="0"/>
         <v>0.10024940094870165</v>
       </c>
       <c r="G33" s="83">
-        <f>E33/B33</f>
+        <f t="shared" si="1"/>
         <v>7.1678321678321675</v>
       </c>
       <c r="H33" s="84">
-        <f>2*E33/(B33*(B33-1))</f>
+        <f t="shared" si="2"/>
         <v>0.10095538264552349</v>
       </c>
       <c r="I33" s="87"/>
@@ -38632,15 +38678,15 @@
         <v>39</v>
       </c>
       <c r="F36" s="88">
-        <f t="shared" ref="F36:F67" si="0">E36*2/B36/B36</f>
+        <f t="shared" ref="F36:F67" si="3">E36*2/B36/B36</f>
         <v>0.64462809917355368</v>
       </c>
       <c r="G36" s="82">
-        <f t="shared" ref="G36:G67" si="1">E36/B36</f>
+        <f t="shared" ref="G36:G67" si="4">E36/B36</f>
         <v>3.5454545454545454</v>
       </c>
       <c r="H36" s="81">
-        <f t="shared" ref="H36:H67" si="2">2*E36/(B36*(B36-1))</f>
+        <f t="shared" ref="H36:H67" si="5">2*E36/(B36*(B36-1))</f>
         <v>0.70909090909090911</v>
       </c>
     </row>
@@ -38661,15 +38707,15 @@
         <v>80</v>
       </c>
       <c r="F37" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.44321329639889195</v>
       </c>
       <c r="G37" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.2105263157894735</v>
       </c>
       <c r="H37" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.46783625730994149</v>
       </c>
     </row>
@@ -38690,15 +38736,15 @@
         <v>121</v>
       </c>
       <c r="F38" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.3319615912208505</v>
       </c>
       <c r="G38" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.4814814814814818</v>
       </c>
       <c r="H38" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.34472934472934474</v>
       </c>
     </row>
@@ -38719,15 +38765,15 @@
         <v>162</v>
       </c>
       <c r="F39" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.26448979591836735</v>
       </c>
       <c r="G39" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.628571428571429</v>
       </c>
       <c r="H39" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.27226890756302519</v>
       </c>
     </row>
@@ -38748,15 +38794,15 @@
         <v>203</v>
       </c>
       <c r="F40" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.21957815035154138</v>
       </c>
       <c r="G40" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.7209302325581399</v>
       </c>
       <c r="H40" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.22480620155038761</v>
       </c>
     </row>
@@ -38777,15 +38823,15 @@
         <v>408</v>
       </c>
       <c r="F41" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.11844970242415445</v>
       </c>
       <c r="G41" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.9156626506024095</v>
       </c>
       <c r="H41" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.11989421099030267</v>
       </c>
     </row>
@@ -38806,15 +38852,15 @@
         <v>818</v>
       </c>
       <c r="F42" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.1575520343257181E-2</v>
       </c>
       <c r="G42" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.0184049079754605</v>
       </c>
       <c r="H42" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.1955616147845186E-2</v>
       </c>
     </row>
@@ -38835,15 +38881,15 @@
         <v>98</v>
       </c>
       <c r="F43" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.67820069204152245</v>
       </c>
       <c r="G43" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.7647058823529411</v>
       </c>
       <c r="H43" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.72058823529411764</v>
       </c>
     </row>
@@ -38864,15 +38910,15 @@
         <v>201</v>
       </c>
       <c r="F44" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.41831425598335065</v>
       </c>
       <c r="G44" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.4838709677419351</v>
       </c>
       <c r="H44" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.43225806451612903</v>
       </c>
     </row>
@@ -38893,15 +38939,15 @@
         <v>304</v>
       </c>
       <c r="F45" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.30024691358024691</v>
       </c>
       <c r="G45" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.7555555555555555</v>
       </c>
       <c r="H45" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.30707070707070705</v>
       </c>
     </row>
@@ -38922,15 +38968,15 @@
         <v>407</v>
       </c>
       <c r="F46" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.23384085033036484</v>
       </c>
       <c r="G46" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.898305084745763</v>
       </c>
       <c r="H46" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.23787258912916423</v>
       </c>
     </row>
@@ -38951,15 +38997,15 @@
         <v>510</v>
       </c>
       <c r="F47" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.19140551698254832</v>
       </c>
       <c r="G47" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.9863013698630141</v>
       </c>
       <c r="H47" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.19406392694063926</v>
       </c>
     </row>
@@ -38980,15 +39026,15 @@
         <v>148</v>
       </c>
       <c r="F48" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.67120181405895685</v>
       </c>
       <c r="G48" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.0476190476190474</v>
       </c>
       <c r="H48" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.70476190476190481</v>
       </c>
     </row>
@@ -39009,15 +39055,15 @@
         <v>1025</v>
       </c>
       <c r="F49" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.10024940094870165</v>
       </c>
       <c r="G49" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.1678321678321675</v>
       </c>
       <c r="H49" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.10095538264552349</v>
       </c>
     </row>
@@ -39038,15 +39084,15 @@
         <v>380</v>
       </c>
       <c r="F50" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.27055891776432894</v>
       </c>
       <c r="G50" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.1698113207547172</v>
       </c>
       <c r="H50" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.27576197387518142</v>
       </c>
     </row>
@@ -39067,15 +39113,15 @@
         <v>218</v>
       </c>
       <c r="F51" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.51843043995243765</v>
       </c>
       <c r="G51" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.5172413793103452</v>
       </c>
       <c r="H51" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.53694581280788178</v>
       </c>
     </row>
@@ -39096,15 +39142,15 @@
         <v>301</v>
       </c>
       <c r="F52" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.39579224194608809</v>
       </c>
       <c r="G52" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.7179487179487181</v>
       </c>
       <c r="H52" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.40620782726045884</v>
       </c>
     </row>
@@ -39125,15 +39171,15 @@
         <v>454</v>
       </c>
       <c r="F53" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.27947060634041243</v>
       </c>
       <c r="G53" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.9649122807017543</v>
       </c>
       <c r="H53" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.28446115288220553</v>
       </c>
     </row>
@@ -39154,15 +39200,15 @@
         <v>607</v>
       </c>
       <c r="F54" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.21582222222222222</v>
       </c>
       <c r="G54" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.0933333333333337</v>
       </c>
       <c r="H54" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21873873873873872</v>
       </c>
     </row>
@@ -39183,15 +39229,15 @@
         <v>760</v>
       </c>
       <c r="F55" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.17574286044629436</v>
       </c>
       <c r="G55" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.172043010752688</v>
       </c>
       <c r="H55" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.17765310892940628</v>
       </c>
     </row>
@@ -39212,15 +39258,15 @@
         <v>188</v>
       </c>
       <c r="F56" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.77685950413223137</v>
       </c>
       <c r="G56" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.545454545454545</v>
       </c>
       <c r="H56" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.81385281385281383</v>
       </c>
     </row>
@@ -39241,15 +39287,15 @@
         <v>650</v>
       </c>
       <c r="F57" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.2811418685121107</v>
       </c>
       <c r="G57" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.5588235294117645</v>
       </c>
       <c r="H57" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.28533801580333629</v>
       </c>
     </row>
@@ -39270,15 +39316,15 @@
         <v>298</v>
       </c>
       <c r="F58" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.70868014268727708</v>
       </c>
       <c r="G58" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.275862068965518</v>
       </c>
       <c r="H58" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.73399014778325122</v>
       </c>
     </row>
@@ -39299,15 +39345,15 @@
         <v>508</v>
       </c>
       <c r="F59" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.44097222222222227</v>
       </c>
       <c r="G59" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.583333333333334</v>
       </c>
       <c r="H59" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.450354609929078</v>
       </c>
     </row>
@@ -39328,15 +39374,15 @@
         <v>574</v>
       </c>
       <c r="F60" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.478134110787172</v>
       </c>
       <c r="G60" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.714285714285714</v>
       </c>
       <c r="H60" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.48809523809523808</v>
       </c>
     </row>
@@ -39357,15 +39403,15 @@
         <v>481</v>
       </c>
       <c r="F61" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.5722784057108864</v>
       </c>
       <c r="G61" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.731707317073171</v>
       </c>
       <c r="H61" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.5865853658536585</v>
       </c>
     </row>
@@ -39386,15 +39432,15 @@
         <v>823</v>
       </c>
       <c r="F62" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.37786960514233237</v>
       </c>
       <c r="G62" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.469696969696969</v>
       </c>
       <c r="H62" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.3836829836829837</v>
       </c>
     </row>
@@ -39415,15 +39461,15 @@
         <v>783</v>
       </c>
       <c r="F63" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.435</v>
       </c>
       <c r="G63" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.05</v>
       </c>
       <c r="H63" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.44237288135593222</v>
       </c>
     </row>
@@ -39444,15 +39490,15 @@
         <v>2750</v>
       </c>
       <c r="F64" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.21755468533681421</v>
       </c>
       <c r="G64" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>17.29559748427673</v>
       </c>
       <c r="H64" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.2189316137250219</v>
       </c>
     </row>
@@ -39473,15 +39519,15 @@
         <v>2372</v>
       </c>
       <c r="F65" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.3715247865925288</v>
       </c>
       <c r="G65" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20.991150442477878</v>
       </c>
       <c r="H65" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.37484197218710491</v>
       </c>
     </row>
@@ -39502,15 +39548,15 @@
         <v>2865</v>
       </c>
       <c r="F66" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.35526071052142105</v>
       </c>
       <c r="G66" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22.559055118110237</v>
       </c>
       <c r="H66" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.35808023997000377</v>
       </c>
     </row>
@@ -39531,15 +39577,15 @@
         <v>3528</v>
       </c>
       <c r="F67" s="91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.33560047562425682</v>
       </c>
       <c r="G67" s="92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>24.331034482758621</v>
       </c>
       <c r="H67" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.33793103448275863</v>
       </c>
     </row>

--- a/lockstep_algorithm/data/Full data.xlsx
+++ b/lockstep_algorithm/data/Full data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ablum\bachelorprojekt\lockstep_algorithm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9AFF4F-9787-4738-AE6F-94256F4DF051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BF9E06-15D5-4C00-8D74-8CECFCE466B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{F15F8A2E-46BA-487E-9055-5E3E5DA9E31A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F15F8A2E-46BA-487E-9055-5E3E5DA9E31A}"/>
   </bookViews>
   <sheets>
     <sheet name="Appendix" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="51">
   <si>
     <t>Places</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>&gt;1 SCC</t>
-  </si>
-  <si>
-    <t>XB worst-case graphs (no pruning)</t>
   </si>
   <si>
     <t>Run time (ms)</t>
@@ -212,7 +209,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="0.000%"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -937,13 +934,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -961,10 +962,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Farve1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -23578,159 +23575,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D4DE2E-FEEC-4753-A249-B0F1F1A79EC0}">
-  <dimension ref="A1:BF36"/>
+  <dimension ref="A1:BH36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:V35"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AT20" sqref="AT20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="27"/>
+    <col min="1" max="2" width="8.88671875" style="27"/>
     <col min="3" max="3" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="27"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="27"/>
+    <col min="13" max="13" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.42578125" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" customWidth="1"/>
-    <col min="39" max="39" width="7.42578125" customWidth="1"/>
-    <col min="40" max="40" width="7.140625" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.85546875" customWidth="1"/>
-    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.21875" style="27" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:58" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="96" t="s">
+    <row r="1" spans="2:60" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="101"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="101"/>
+      <c r="K2" s="102"/>
+      <c r="M2" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="101"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="104"/>
+      <c r="V2" s="105"/>
+      <c r="X2" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="96" t="s">
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="96" t="s">
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="97"/>
-      <c r="M2" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="96" t="s">
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI2" s="102"/>
+      <c r="AK2" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="98"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="U2" s="100"/>
-      <c r="V2" s="101"/>
-      <c r="X2" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="96" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI2" s="97"/>
-      <c r="AK2" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="98"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP2" s="98"/>
-      <c r="AQ2" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR2" s="97"/>
-      <c r="AT2" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU2" s="98"/>
-      <c r="AV2" s="98"/>
-      <c r="AW2" s="97"/>
-      <c r="AX2" s="96" t="s">
+      <c r="AS2" s="101"/>
+      <c r="AT2" s="102"/>
+      <c r="AV2" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW2" s="101"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="102"/>
+      <c r="AZ2" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA2" s="101"/>
+      <c r="BB2" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="AY2" s="98"/>
-      <c r="AZ2" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA2" s="97"/>
-      <c r="BC2" s="96" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD2" s="97"/>
-      <c r="BE2" s="98" t="s">
+      <c r="BC2" s="102"/>
+      <c r="BE2" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="BF2" s="97"/>
+      <c r="BF2" s="102"/>
+      <c r="BG2" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH2" s="102"/>
     </row>
-    <row r="3" spans="2:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
@@ -23744,7 +23745,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>4</v>
@@ -23753,7 +23754,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>4</v>
@@ -23774,7 +23775,7 @@
         <v>3</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R3" s="17" t="s">
         <v>4</v>
@@ -23783,7 +23784,7 @@
         <v>12</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U3" s="17" t="s">
         <v>4</v>
@@ -23805,25 +23806,25 @@
         <v>3</v>
       </c>
       <c r="AB3" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="AD3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="AF3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="AH3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI3" s="18" t="s">
         <v>4</v>
@@ -23838,58 +23839,64 @@
         <v>2</v>
       </c>
       <c r="AN3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="AP3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AQ3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR3" s="6" t="s">
+      <c r="AQ3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="16" t="s">
+      <c r="AT3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AU3" s="17" t="s">
+      <c r="AW3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AV3" s="17" t="s">
+      <c r="AX3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AW3" s="18" t="s">
+      <c r="AY3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AX3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY3" s="17" t="s">
+      <c r="AZ3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AZ3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA3" s="18" t="s">
+      <c r="BB3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="BC3" s="16" t="s">
+      <c r="BE3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="BD3" s="17" t="s">
+      <c r="BF3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="BE3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="BF3" s="71" t="s">
+      <c r="BG3" s="16" t="s">
         <v>43</v>
       </c>
+      <c r="BH3" s="71" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>11</v>
       </c>
@@ -23999,57 +24006,63 @@
       <c r="AN4" s="3">
         <v>100</v>
       </c>
-      <c r="AO4" s="10">
+      <c r="AO4" s="1">
         <v>375</v>
       </c>
-      <c r="AP4" s="10">
+      <c r="AP4" s="2">
         <v>27273</v>
       </c>
-      <c r="AQ4" s="12">
+      <c r="AQ4" s="3">
+        <v>113</v>
+      </c>
+      <c r="AR4" s="1">
         <v>2504</v>
       </c>
-      <c r="AR4" s="14">
+      <c r="AS4" s="2">
         <v>197670</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AT4" s="3">
+        <v>199</v>
+      </c>
+      <c r="AV4" s="1">
         <v>11</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AW4" s="2">
         <v>11</v>
       </c>
-      <c r="AV4" s="10">
+      <c r="AX4" s="10">
         <v>32</v>
       </c>
-      <c r="AW4" s="14">
+      <c r="AY4" s="14">
         <v>1</v>
-      </c>
-      <c r="AX4" s="12">
-        <v>2</v>
-      </c>
-      <c r="AY4" s="10">
-        <v>82</v>
       </c>
       <c r="AZ4" s="12">
         <v>2</v>
       </c>
-      <c r="BA4" s="14">
+      <c r="BA4" s="10">
         <v>82</v>
       </c>
-      <c r="BC4" s="1">
+      <c r="BB4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BC4" s="14">
+        <v>82</v>
+      </c>
+      <c r="BE4" s="1">
         <v>11</v>
       </c>
-      <c r="BD4" s="2">
+      <c r="BF4" s="2">
         <v>11</v>
       </c>
-      <c r="BE4" s="12">
+      <c r="BG4" s="12">
         <v>39</v>
       </c>
-      <c r="BF4" s="85">
-        <f t="shared" ref="BF4:BF35" si="0">2*BE4/(BD4*(BD4-1))</f>
+      <c r="BH4" s="85">
+        <f t="shared" ref="BH4:BH35" si="0">2*BG4/(BF4*(BF4-1))</f>
         <v>0.70909090909090911</v>
       </c>
     </row>
-    <row r="5" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B5" s="28">
         <v>17</v>
       </c>
@@ -24159,57 +24172,63 @@
       <c r="AN5" s="3">
         <v>200</v>
       </c>
-      <c r="AO5" s="10">
+      <c r="AO5" s="1">
         <v>1959</v>
       </c>
-      <c r="AP5" s="10">
+      <c r="AP5" s="2">
         <v>109817</v>
       </c>
-      <c r="AQ5" s="12">
+      <c r="AQ5" s="3">
+        <v>218</v>
+      </c>
+      <c r="AR5" s="1">
         <v>38785</v>
       </c>
-      <c r="AR5" s="14">
+      <c r="AS5" s="2">
         <v>2310995</v>
       </c>
-      <c r="AT5" s="28">
+      <c r="AT5" s="3">
+        <v>399</v>
+      </c>
+      <c r="AV5" s="28">
         <v>17</v>
       </c>
-      <c r="AU5" s="29">
+      <c r="AW5" s="29">
         <v>22</v>
       </c>
-      <c r="AV5" s="30">
+      <c r="AX5" s="30">
         <v>164</v>
       </c>
-      <c r="AW5" s="31">
+      <c r="AY5" s="31">
         <v>9</v>
       </c>
-      <c r="AX5" s="32">
+      <c r="AZ5" s="32">
         <v>38</v>
       </c>
-      <c r="AY5" s="30">
+      <c r="BA5" s="30">
         <v>1991</v>
       </c>
-      <c r="AZ5" s="32">
+      <c r="BB5" s="32">
         <v>30</v>
       </c>
-      <c r="BA5" s="31">
+      <c r="BC5" s="31">
         <v>1696</v>
       </c>
-      <c r="BC5" s="28">
+      <c r="BE5" s="28">
         <v>17</v>
       </c>
-      <c r="BD5" s="29">
+      <c r="BF5" s="29">
         <v>22</v>
       </c>
-      <c r="BE5" s="32">
+      <c r="BG5" s="32">
         <v>188</v>
       </c>
-      <c r="BF5" s="86">
+      <c r="BH5" s="86">
         <f t="shared" si="0"/>
         <v>0.81385281385281383</v>
       </c>
     </row>
-    <row r="6" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>19</v>
       </c>
@@ -24319,57 +24338,63 @@
       <c r="AN6" s="3">
         <v>300</v>
       </c>
-      <c r="AO6" s="10">
+      <c r="AO6" s="1">
         <v>5199</v>
       </c>
-      <c r="AP6" s="10">
+      <c r="AP6" s="2">
         <v>248078</v>
       </c>
-      <c r="AQ6" s="12">
+      <c r="AQ6" s="3">
+        <v>322</v>
+      </c>
+      <c r="AR6" s="1">
         <v>133496</v>
       </c>
-      <c r="AR6" s="14">
+      <c r="AS6" s="2">
         <v>7135070</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AT6" s="3">
+        <v>599</v>
+      </c>
+      <c r="AV6" s="1">
         <v>19</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="AW6" s="2">
         <v>19</v>
       </c>
-      <c r="AV6" s="10">
+      <c r="AX6" s="10">
         <v>512</v>
       </c>
-      <c r="AW6" s="14">
+      <c r="AY6" s="14">
         <v>1</v>
       </c>
-      <c r="AX6" s="12">
+      <c r="AZ6" s="12">
         <v>5</v>
       </c>
-      <c r="AY6" s="10">
+      <c r="BA6" s="10">
         <v>203</v>
       </c>
-      <c r="AZ6" s="12">
+      <c r="BB6" s="12">
         <v>6</v>
       </c>
-      <c r="BA6" s="14">
+      <c r="BC6" s="14">
         <v>203</v>
       </c>
-      <c r="BC6" s="1">
+      <c r="BE6" s="1">
         <v>19</v>
       </c>
-      <c r="BD6" s="2">
+      <c r="BF6" s="2">
         <v>19</v>
       </c>
-      <c r="BE6" s="12">
+      <c r="BG6" s="12">
         <v>80</v>
       </c>
-      <c r="BF6" s="85">
+      <c r="BH6" s="85">
         <f t="shared" si="0"/>
         <v>0.46783625730994149</v>
       </c>
     </row>
-    <row r="7" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>22</v>
       </c>
@@ -24479,57 +24504,63 @@
       <c r="AN7" s="3">
         <v>400</v>
       </c>
-      <c r="AO7" s="10">
+      <c r="AO7" s="1">
         <v>10744</v>
       </c>
-      <c r="AP7" s="10">
+      <c r="AP7" s="2">
         <v>442899</v>
       </c>
-      <c r="AQ7" s="12">
+      <c r="AQ7" s="3">
+        <v>426</v>
+      </c>
+      <c r="AR7" s="1">
         <v>315979</v>
       </c>
-      <c r="AR7" s="14">
+      <c r="AS7" s="2">
         <v>15459995</v>
       </c>
-      <c r="AT7" s="28">
+      <c r="AT7" s="3">
+        <v>799</v>
+      </c>
+      <c r="AV7" s="28">
         <v>24</v>
       </c>
-      <c r="AU7" s="29">
+      <c r="AW7" s="29">
         <v>29</v>
       </c>
-      <c r="AV7" s="30">
+      <c r="AX7" s="30">
         <v>1194</v>
       </c>
-      <c r="AW7" s="31">
+      <c r="AY7" s="31">
         <v>189</v>
       </c>
-      <c r="AX7" s="32">
+      <c r="AZ7" s="32">
         <v>126</v>
       </c>
-      <c r="AY7" s="30">
+      <c r="BA7" s="30">
         <v>12685</v>
       </c>
-      <c r="AZ7" s="32">
+      <c r="BB7" s="32">
         <v>119</v>
       </c>
-      <c r="BA7" s="31">
+      <c r="BC7" s="31">
         <v>12296</v>
       </c>
-      <c r="BC7" s="1">
+      <c r="BE7" s="1">
         <v>22</v>
       </c>
-      <c r="BD7" s="2">
+      <c r="BF7" s="2">
         <v>17</v>
       </c>
-      <c r="BE7" s="12">
+      <c r="BG7" s="12">
         <v>98</v>
       </c>
-      <c r="BF7" s="85">
+      <c r="BH7" s="85">
         <f t="shared" si="0"/>
         <v>0.72058823529411764</v>
       </c>
     </row>
-    <row r="8" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B8" s="28">
         <v>24</v>
       </c>
@@ -24639,57 +24670,63 @@
       <c r="AN8" s="3">
         <v>500</v>
       </c>
-      <c r="AO8" s="10">
+      <c r="AO8" s="1">
         <v>18926</v>
       </c>
-      <c r="AP8" s="10">
+      <c r="AP8" s="2">
         <v>692464</v>
       </c>
-      <c r="AQ8" s="12">
+      <c r="AQ8" s="3">
+        <v>529</v>
+      </c>
+      <c r="AR8" s="1">
         <v>630470</v>
       </c>
-      <c r="AR8" s="14">
+      <c r="AS8" s="2">
         <v>28075870</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AT8" s="3">
+        <v>999</v>
+      </c>
+      <c r="AV8" s="1">
         <v>22</v>
       </c>
-      <c r="AU8" s="2">
+      <c r="AW8" s="2">
         <v>17</v>
       </c>
-      <c r="AV8" s="10">
+      <c r="AX8" s="10">
         <v>1280</v>
       </c>
-      <c r="AW8" s="14">
+      <c r="AY8" s="14">
         <v>1</v>
-      </c>
-      <c r="AX8" s="12">
-        <v>11</v>
-      </c>
-      <c r="AY8" s="10">
-        <v>371</v>
       </c>
       <c r="AZ8" s="12">
         <v>11</v>
       </c>
-      <c r="BA8" s="14">
+      <c r="BA8" s="10">
         <v>371</v>
       </c>
-      <c r="BC8" s="28">
+      <c r="BB8" s="12">
+        <v>11</v>
+      </c>
+      <c r="BC8" s="14">
+        <v>371</v>
+      </c>
+      <c r="BE8" s="28">
         <v>24</v>
       </c>
-      <c r="BD8" s="29">
+      <c r="BF8" s="29">
         <v>29</v>
       </c>
-      <c r="BE8" s="32">
+      <c r="BG8" s="32">
         <v>218</v>
       </c>
-      <c r="BF8" s="86">
+      <c r="BH8" s="86">
         <f t="shared" si="0"/>
         <v>0.53694581280788178</v>
       </c>
     </row>
-    <row r="9" spans="2:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>27</v>
       </c>
@@ -24799,57 +24836,63 @@
       <c r="AN9" s="6">
         <v>600</v>
       </c>
-      <c r="AO9" s="11">
+      <c r="AO9" s="4">
         <v>31979</v>
       </c>
-      <c r="AP9" s="11">
+      <c r="AP9" s="5">
         <v>999533</v>
       </c>
-      <c r="AQ9" s="13">
+      <c r="AQ9" s="6">
+        <v>632</v>
+      </c>
+      <c r="AR9" s="4">
         <v>1066631</v>
       </c>
-      <c r="AR9" s="15">
+      <c r="AS9" s="5">
         <v>45772795</v>
       </c>
-      <c r="AT9" s="28">
+      <c r="AT9" s="6">
+        <v>1199</v>
+      </c>
+      <c r="AV9" s="28">
         <v>43</v>
       </c>
-      <c r="AU9" s="29">
+      <c r="AW9" s="29">
         <v>48</v>
       </c>
-      <c r="AV9" s="30">
+      <c r="AX9" s="30">
         <v>3172</v>
       </c>
-      <c r="AW9" s="31">
+      <c r="AY9" s="31">
         <v>55</v>
       </c>
-      <c r="AX9" s="32">
+      <c r="AZ9" s="32">
         <v>201</v>
       </c>
-      <c r="AY9" s="30">
+      <c r="BA9" s="30">
         <v>11216</v>
       </c>
-      <c r="AZ9" s="32">
+      <c r="BB9" s="32">
         <v>196</v>
       </c>
-      <c r="BA9" s="31">
+      <c r="BC9" s="31">
         <v>10858</v>
       </c>
-      <c r="BC9" s="1">
+      <c r="BE9" s="1">
         <v>27</v>
       </c>
-      <c r="BD9" s="2">
+      <c r="BF9" s="2">
         <v>27</v>
       </c>
-      <c r="BE9" s="12">
+      <c r="BG9" s="12">
         <v>121</v>
       </c>
-      <c r="BF9" s="85">
+      <c r="BH9" s="85">
         <f t="shared" si="0"/>
         <v>0.34472934472934474</v>
       </c>
     </row>
-    <row r="10" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>28</v>
       </c>
@@ -24947,45 +24990,45 @@
       <c r="AI10" s="14">
         <v>1239</v>
       </c>
-      <c r="AT10" s="1">
+      <c r="AV10" s="1">
         <v>28</v>
       </c>
-      <c r="AU10" s="2">
+      <c r="AW10" s="2">
         <v>21</v>
       </c>
-      <c r="AV10" s="10">
+      <c r="AX10" s="10">
         <v>8000</v>
       </c>
-      <c r="AW10" s="14">
+      <c r="AY10" s="14">
         <v>1</v>
       </c>
-      <c r="AX10" s="12">
+      <c r="AZ10" s="12">
         <v>17</v>
       </c>
-      <c r="AY10" s="10">
+      <c r="BA10" s="10">
         <v>650</v>
       </c>
-      <c r="AZ10" s="12">
+      <c r="BB10" s="12">
         <v>19</v>
       </c>
-      <c r="BA10" s="14">
+      <c r="BC10" s="14">
         <v>650</v>
       </c>
-      <c r="BC10" s="1">
+      <c r="BE10" s="1">
         <v>28</v>
       </c>
-      <c r="BD10" s="2">
+      <c r="BF10" s="2">
         <v>21</v>
       </c>
-      <c r="BE10" s="12">
+      <c r="BG10" s="12">
         <v>148</v>
       </c>
-      <c r="BF10" s="85">
+      <c r="BH10" s="85">
         <f t="shared" si="0"/>
         <v>0.70476190476190481</v>
       </c>
     </row>
-    <row r="11" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B11" s="28">
         <v>31</v>
       </c>
@@ -25083,45 +25126,45 @@
       <c r="AI11" s="14">
         <v>371829</v>
       </c>
-      <c r="AT11" s="1">
+      <c r="AV11" s="1">
         <v>27</v>
       </c>
-      <c r="AU11" s="2">
+      <c r="AW11" s="2">
         <v>27</v>
       </c>
-      <c r="AV11" s="10">
+      <c r="AX11" s="10">
         <v>8192</v>
       </c>
-      <c r="AW11" s="14">
+      <c r="AY11" s="14">
         <v>1</v>
-      </c>
-      <c r="AX11" s="12">
-        <v>10</v>
-      </c>
-      <c r="AY11" s="10">
-        <v>327</v>
       </c>
       <c r="AZ11" s="12">
         <v>10</v>
       </c>
-      <c r="BA11" s="14">
+      <c r="BA11" s="10">
         <v>327</v>
       </c>
-      <c r="BC11" s="28">
+      <c r="BB11" s="12">
+        <v>10</v>
+      </c>
+      <c r="BC11" s="14">
+        <v>327</v>
+      </c>
+      <c r="BE11" s="28">
         <v>31</v>
       </c>
-      <c r="BD11" s="29">
+      <c r="BF11" s="29">
         <v>41</v>
       </c>
-      <c r="BE11" s="32">
+      <c r="BG11" s="32">
         <v>481</v>
       </c>
-      <c r="BF11" s="86">
+      <c r="BH11" s="86">
         <f t="shared" si="0"/>
         <v>0.5865853658536585</v>
       </c>
     </row>
-    <row r="12" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B12" s="28">
         <v>34</v>
       </c>
@@ -25219,45 +25262,45 @@
       <c r="AI12" s="14">
         <v>55651</v>
       </c>
-      <c r="AT12" s="28">
+      <c r="AV12" s="28">
         <v>31</v>
       </c>
-      <c r="AU12" s="29">
+      <c r="AW12" s="29">
         <v>41</v>
       </c>
-      <c r="AV12" s="30">
+      <c r="AX12" s="30">
         <v>15386</v>
       </c>
-      <c r="AW12" s="31">
+      <c r="AY12" s="31">
         <v>1727</v>
       </c>
-      <c r="AX12" s="32">
+      <c r="AZ12" s="32">
         <v>3085</v>
       </c>
-      <c r="AY12" s="30">
+      <c r="BA12" s="30">
         <v>228774</v>
       </c>
-      <c r="AZ12" s="32">
+      <c r="BB12" s="32">
         <v>2549</v>
       </c>
-      <c r="BA12" s="31">
+      <c r="BC12" s="31">
         <v>210099</v>
       </c>
-      <c r="BC12" s="28">
+      <c r="BE12" s="28">
         <v>34</v>
       </c>
-      <c r="BD12" s="29">
+      <c r="BF12" s="29">
         <v>29</v>
       </c>
-      <c r="BE12" s="32">
+      <c r="BG12" s="32">
         <v>298</v>
       </c>
-      <c r="BF12" s="86">
+      <c r="BH12" s="86">
         <f t="shared" si="0"/>
         <v>0.73399014778325122</v>
       </c>
     </row>
-    <row r="13" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>35</v>
       </c>
@@ -25355,45 +25398,45 @@
       <c r="AI13" s="14">
         <v>1715</v>
       </c>
-      <c r="AT13" s="28">
+      <c r="AV13" s="28">
         <v>53</v>
       </c>
-      <c r="AU13" s="29">
+      <c r="AW13" s="29">
         <v>53</v>
       </c>
-      <c r="AV13" s="30">
+      <c r="AX13" s="30">
         <v>21658</v>
       </c>
-      <c r="AW13" s="31">
+      <c r="AY13" s="31">
         <v>2620</v>
       </c>
-      <c r="AX13" s="32">
+      <c r="AZ13" s="32">
         <v>3935</v>
       </c>
-      <c r="AY13" s="30">
+      <c r="BA13" s="30">
         <v>323471</v>
       </c>
-      <c r="AZ13" s="32">
+      <c r="BB13" s="32">
         <v>3439</v>
       </c>
-      <c r="BA13" s="31">
+      <c r="BC13" s="31">
         <v>310844</v>
       </c>
-      <c r="BC13" s="1">
+      <c r="BE13" s="1">
         <v>35</v>
       </c>
-      <c r="BD13" s="2">
+      <c r="BF13" s="2">
         <v>35</v>
       </c>
-      <c r="BE13" s="12">
+      <c r="BG13" s="12">
         <v>162</v>
       </c>
-      <c r="BF13" s="85">
+      <c r="BH13" s="85">
         <f t="shared" si="0"/>
         <v>0.27226890756302519</v>
       </c>
     </row>
-    <row r="14" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B14" s="28">
         <v>38</v>
       </c>
@@ -25491,45 +25534,45 @@
       <c r="AI14" s="14">
         <v>167240</v>
       </c>
-      <c r="AT14" s="28">
+      <c r="AV14" s="28">
         <v>38</v>
       </c>
-      <c r="AU14" s="29">
+      <c r="AW14" s="29">
         <v>113</v>
       </c>
-      <c r="AV14" s="30">
+      <c r="AX14" s="30">
         <v>43200</v>
       </c>
-      <c r="AW14" s="31">
+      <c r="AY14" s="31">
         <v>75</v>
       </c>
-      <c r="AX14" s="32">
+      <c r="AZ14" s="32">
         <v>771</v>
       </c>
-      <c r="AY14" s="30">
+      <c r="BA14" s="30">
         <v>67252</v>
       </c>
-      <c r="AZ14" s="32">
+      <c r="BB14" s="32">
         <v>837</v>
       </c>
-      <c r="BA14" s="31">
+      <c r="BC14" s="31">
         <v>66875</v>
       </c>
-      <c r="BC14" s="28">
+      <c r="BE14" s="28">
         <v>38</v>
       </c>
-      <c r="BD14" s="29">
+      <c r="BF14" s="29">
         <v>113</v>
       </c>
-      <c r="BE14" s="32">
+      <c r="BG14" s="32">
         <v>2372</v>
       </c>
-      <c r="BF14" s="86">
+      <c r="BH14" s="86">
         <f t="shared" si="0"/>
         <v>0.37484197218710491</v>
       </c>
     </row>
-    <row r="15" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B15" s="28">
         <v>40</v>
       </c>
@@ -25627,48 +25670,48 @@
       <c r="AI15" s="14">
         <v>17667489</v>
       </c>
-      <c r="AL15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT15" s="28">
+      <c r="AN15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV15" s="28">
         <v>34</v>
       </c>
-      <c r="AU15" s="29">
+      <c r="AW15" s="29">
         <v>29</v>
       </c>
-      <c r="AV15" s="30">
+      <c r="AX15" s="30">
         <v>61288</v>
       </c>
-      <c r="AW15" s="31">
+      <c r="AY15" s="31">
         <v>198</v>
       </c>
-      <c r="AX15" s="32">
+      <c r="AZ15" s="32">
         <v>683</v>
       </c>
-      <c r="AY15" s="30">
+      <c r="BA15" s="30">
         <v>27230</v>
       </c>
-      <c r="AZ15" s="32">
+      <c r="BB15" s="32">
         <v>593</v>
       </c>
-      <c r="BA15" s="31">
+      <c r="BC15" s="31">
         <v>27171</v>
       </c>
-      <c r="BC15" s="28">
+      <c r="BE15" s="28">
         <v>40</v>
       </c>
-      <c r="BD15" s="29">
+      <c r="BF15" s="29">
         <v>49</v>
       </c>
-      <c r="BE15" s="32">
+      <c r="BG15" s="32">
         <v>574</v>
       </c>
-      <c r="BF15" s="86">
+      <c r="BH15" s="86">
         <f t="shared" si="0"/>
         <v>0.48809523809523808</v>
       </c>
     </row>
-    <row r="16" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B16" s="28">
         <v>41</v>
       </c>
@@ -25766,45 +25809,45 @@
       <c r="AI16" s="14">
         <v>207010</v>
       </c>
-      <c r="AT16" s="28">
+      <c r="AV16" s="28">
         <v>41</v>
       </c>
-      <c r="AU16" s="29">
+      <c r="AW16" s="29">
         <v>127</v>
       </c>
-      <c r="AV16" s="30">
+      <c r="AX16" s="30">
         <v>86400</v>
       </c>
-      <c r="AW16" s="31">
+      <c r="AY16" s="31">
         <v>75</v>
       </c>
-      <c r="AX16" s="32">
+      <c r="AZ16" s="32">
         <v>893</v>
       </c>
-      <c r="AY16" s="30">
+      <c r="BA16" s="30">
         <v>79511</v>
       </c>
-      <c r="AZ16" s="32">
+      <c r="BB16" s="32">
         <v>889</v>
       </c>
-      <c r="BA16" s="31">
+      <c r="BC16" s="31">
         <v>79163</v>
       </c>
-      <c r="BC16" s="28">
+      <c r="BE16" s="28">
         <v>41</v>
       </c>
-      <c r="BD16" s="29">
+      <c r="BF16" s="29">
         <v>127</v>
       </c>
-      <c r="BE16" s="32">
+      <c r="BG16" s="32">
         <v>2865</v>
       </c>
-      <c r="BF16" s="86">
+      <c r="BH16" s="86">
         <f t="shared" si="0"/>
         <v>0.35808023997000377</v>
       </c>
     </row>
-    <row r="17" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>41</v>
       </c>
@@ -25902,45 +25945,45 @@
       <c r="AI17" s="14">
         <v>2232</v>
       </c>
-      <c r="AT17" s="1">
+      <c r="AV17" s="1">
         <v>35</v>
       </c>
-      <c r="AU17" s="2">
+      <c r="AW17" s="2">
         <v>35</v>
       </c>
-      <c r="AV17" s="10">
+      <c r="AX17" s="10">
         <v>131072</v>
       </c>
-      <c r="AW17" s="14">
+      <c r="AY17" s="14">
         <v>1</v>
-      </c>
-      <c r="AX17" s="12">
-        <v>15</v>
-      </c>
-      <c r="AY17" s="10">
-        <v>456</v>
       </c>
       <c r="AZ17" s="12">
         <v>15</v>
       </c>
-      <c r="BA17" s="14">
+      <c r="BA17" s="10">
         <v>456</v>
       </c>
-      <c r="BC17" s="1">
+      <c r="BB17" s="12">
+        <v>15</v>
+      </c>
+      <c r="BC17" s="14">
+        <v>456</v>
+      </c>
+      <c r="BE17" s="1">
         <v>41</v>
       </c>
-      <c r="BD17" s="2">
+      <c r="BF17" s="2">
         <v>31</v>
       </c>
-      <c r="BE17" s="12">
+      <c r="BG17" s="12">
         <v>201</v>
       </c>
-      <c r="BF17" s="85">
+      <c r="BH17" s="85">
         <f t="shared" si="0"/>
         <v>0.43225806451612903</v>
       </c>
     </row>
-    <row r="18" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B18" s="28">
         <v>43</v>
       </c>
@@ -26038,45 +26081,45 @@
       <c r="AI18" s="14">
         <v>77040</v>
       </c>
-      <c r="AT18" s="28">
+      <c r="AV18" s="28">
         <v>45</v>
       </c>
-      <c r="AU18" s="29">
+      <c r="AW18" s="29">
         <v>145</v>
       </c>
-      <c r="AV18" s="30">
+      <c r="AX18" s="30">
         <v>259200</v>
       </c>
-      <c r="AW18" s="31">
+      <c r="AY18" s="31">
         <v>75</v>
       </c>
-      <c r="AX18" s="32">
+      <c r="AZ18" s="32">
         <v>1161</v>
       </c>
-      <c r="AY18" s="30">
+      <c r="BA18" s="30">
         <v>96647</v>
       </c>
-      <c r="AZ18" s="32">
+      <c r="BB18" s="32">
         <v>1184</v>
       </c>
-      <c r="BA18" s="31">
+      <c r="BC18" s="31">
         <v>96292</v>
       </c>
-      <c r="BC18" s="28">
+      <c r="BE18" s="28">
         <v>43</v>
       </c>
-      <c r="BD18" s="29">
+      <c r="BF18" s="29">
         <v>48</v>
       </c>
-      <c r="BE18" s="32">
+      <c r="BG18" s="32">
         <v>508</v>
       </c>
-      <c r="BF18" s="86">
+      <c r="BH18" s="86">
         <f t="shared" si="0"/>
         <v>0.450354609929078</v>
       </c>
     </row>
-    <row r="19" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>43</v>
       </c>
@@ -26174,45 +26217,45 @@
       <c r="AI19" s="14">
         <v>2580</v>
       </c>
-      <c r="AT19" s="28">
+      <c r="AV19" s="28">
         <v>40</v>
       </c>
-      <c r="AU19" s="29">
+      <c r="AW19" s="29">
         <v>49</v>
       </c>
-      <c r="AV19" s="30">
+      <c r="AX19" s="30">
         <v>321114</v>
       </c>
-      <c r="AW19" s="31">
+      <c r="AY19" s="31">
         <v>59229</v>
       </c>
-      <c r="AX19" s="32">
+      <c r="AZ19" s="32">
         <v>62130</v>
       </c>
-      <c r="AY19" s="30">
+      <c r="BA19" s="30">
         <v>6148175</v>
       </c>
-      <c r="AZ19" s="32">
+      <c r="BB19" s="32">
         <v>52801</v>
       </c>
-      <c r="BA19" s="31">
+      <c r="BC19" s="31">
         <v>5989172</v>
       </c>
-      <c r="BC19" s="1">
+      <c r="BE19" s="1">
         <v>43</v>
       </c>
-      <c r="BD19" s="2">
+      <c r="BF19" s="2">
         <v>43</v>
       </c>
-      <c r="BE19" s="12">
+      <c r="BG19" s="12">
         <v>203</v>
       </c>
-      <c r="BF19" s="85">
+      <c r="BH19" s="85">
         <f t="shared" si="0"/>
         <v>0.22480620155038761</v>
       </c>
     </row>
-    <row r="20" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B20" s="28">
         <v>45</v>
       </c>
@@ -26310,45 +26353,45 @@
       <c r="AI20" s="14">
         <v>258100</v>
       </c>
-      <c r="AT20" s="1">
+      <c r="AV20" s="1">
         <v>41</v>
       </c>
-      <c r="AU20" s="2">
+      <c r="AW20" s="2">
         <v>31</v>
       </c>
-      <c r="AV20" s="10">
+      <c r="AX20" s="10">
         <v>819200</v>
       </c>
-      <c r="AW20" s="14">
+      <c r="AY20" s="14">
         <v>1</v>
       </c>
-      <c r="AX20" s="12">
+      <c r="AZ20" s="12">
         <v>32</v>
       </c>
-      <c r="AY20" s="10">
+      <c r="BA20" s="10">
         <v>930</v>
       </c>
-      <c r="AZ20" s="12">
+      <c r="BB20" s="12">
         <v>33</v>
       </c>
-      <c r="BA20" s="14">
+      <c r="BC20" s="14">
         <v>930</v>
       </c>
-      <c r="BC20" s="28">
+      <c r="BE20" s="28">
         <v>45</v>
       </c>
-      <c r="BD20" s="29">
+      <c r="BF20" s="29">
         <v>145</v>
       </c>
-      <c r="BE20" s="32">
+      <c r="BG20" s="32">
         <v>3528</v>
       </c>
-      <c r="BF20" s="86">
+      <c r="BH20" s="86">
         <f t="shared" si="0"/>
         <v>0.33793103448275863</v>
       </c>
     </row>
-    <row r="21" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B21" s="28">
         <v>45</v>
       </c>
@@ -26446,45 +26489,45 @@
       <c r="AI21" s="14">
         <v>62651520</v>
       </c>
-      <c r="AT21" s="28">
+      <c r="AV21" s="28">
         <v>45</v>
       </c>
-      <c r="AU21" s="29">
+      <c r="AW21" s="29">
         <v>60</v>
       </c>
-      <c r="AV21" s="34">
+      <c r="AX21" s="34">
         <v>1455374</v>
       </c>
-      <c r="AW21" s="31">
+      <c r="AY21" s="31">
         <v>252641</v>
       </c>
-      <c r="AX21" s="32">
+      <c r="AZ21" s="32">
         <v>534877</v>
       </c>
-      <c r="AY21" s="30">
+      <c r="BA21" s="30">
         <v>38175762</v>
       </c>
-      <c r="AZ21" s="32">
+      <c r="BB21" s="32">
         <v>466708</v>
       </c>
-      <c r="BA21" s="31">
+      <c r="BC21" s="31">
         <v>36184017</v>
       </c>
-      <c r="BC21" s="28">
+      <c r="BE21" s="28">
         <v>45</v>
       </c>
-      <c r="BD21" s="29">
+      <c r="BF21" s="29">
         <v>60</v>
       </c>
-      <c r="BE21" s="32">
+      <c r="BG21" s="32">
         <v>783</v>
       </c>
-      <c r="BF21" s="86">
+      <c r="BH21" s="86">
         <f t="shared" si="0"/>
         <v>0.44237288135593222</v>
       </c>
     </row>
-    <row r="22" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B22" s="28">
         <v>53</v>
       </c>
@@ -26582,45 +26625,45 @@
       <c r="AI22" s="14">
         <v>503924</v>
       </c>
-      <c r="AT22" s="1">
+      <c r="AV22" s="1">
         <v>43</v>
       </c>
-      <c r="AU22" s="2">
+      <c r="AW22" s="2">
         <v>43</v>
       </c>
-      <c r="AV22" s="19">
+      <c r="AX22" s="19">
         <v>2097152</v>
       </c>
-      <c r="AW22" s="14">
+      <c r="AY22" s="14">
         <v>1</v>
       </c>
-      <c r="AX22" s="12">
+      <c r="AZ22" s="12">
         <v>28</v>
       </c>
-      <c r="AY22" s="10">
+      <c r="BA22" s="10">
         <v>784</v>
       </c>
-      <c r="AZ22" s="12">
+      <c r="BB22" s="12">
         <v>29</v>
       </c>
-      <c r="BA22" s="14">
+      <c r="BC22" s="14">
         <v>784</v>
       </c>
-      <c r="BC22" s="28">
+      <c r="BE22" s="28">
         <v>53</v>
       </c>
-      <c r="BD22" s="29">
+      <c r="BF22" s="29">
         <v>53</v>
       </c>
-      <c r="BE22" s="32">
+      <c r="BG22" s="32">
         <v>380</v>
       </c>
-      <c r="BF22" s="86">
+      <c r="BH22" s="86">
         <f t="shared" si="0"/>
         <v>0.27576197387518142</v>
       </c>
     </row>
-    <row r="23" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>53</v>
       </c>
@@ -26718,45 +26761,45 @@
       <c r="AI23" s="14">
         <v>4758</v>
       </c>
-      <c r="AT23" s="28">
+      <c r="AV23" s="28">
         <v>73</v>
       </c>
-      <c r="AU23" s="29">
+      <c r="AW23" s="29">
         <v>68</v>
       </c>
-      <c r="AV23" s="34">
+      <c r="AX23" s="34">
         <v>3258135</v>
       </c>
-      <c r="AW23" s="31">
+      <c r="AY23" s="31">
         <v>168754</v>
       </c>
-      <c r="AX23" s="32">
+      <c r="AZ23" s="32">
         <v>369022</v>
       </c>
-      <c r="AY23" s="30">
+      <c r="BA23" s="30">
         <v>24782887</v>
       </c>
-      <c r="AZ23" s="32">
+      <c r="BB23" s="32">
         <v>340715</v>
       </c>
-      <c r="BA23" s="31">
+      <c r="BC23" s="31">
         <v>25179062</v>
       </c>
-      <c r="BC23" s="1">
+      <c r="BE23" s="1">
         <v>53</v>
       </c>
-      <c r="BD23" s="2">
+      <c r="BF23" s="2">
         <v>39</v>
       </c>
-      <c r="BE23" s="12">
+      <c r="BG23" s="12">
         <v>301</v>
       </c>
-      <c r="BF23" s="85">
+      <c r="BH23" s="85">
         <f t="shared" si="0"/>
         <v>0.40620782726045884</v>
       </c>
     </row>
-    <row r="24" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>60</v>
       </c>
@@ -26854,45 +26897,45 @@
       <c r="AI24" s="14">
         <v>5040</v>
       </c>
-      <c r="AT24" s="28">
+      <c r="AV24" s="28">
         <v>71</v>
       </c>
-      <c r="AU24" s="29">
+      <c r="AW24" s="29">
         <v>66</v>
       </c>
-      <c r="AV24" s="34">
+      <c r="AX24" s="34">
         <v>5093654</v>
       </c>
-      <c r="AW24" s="31">
+      <c r="AY24" s="31">
         <v>4404</v>
       </c>
-      <c r="AX24" s="32">
+      <c r="AZ24" s="32">
         <v>11647</v>
       </c>
-      <c r="AY24" s="30">
+      <c r="BA24" s="30">
         <v>675752</v>
       </c>
-      <c r="AZ24" s="32">
+      <c r="BB24" s="32">
         <v>10821</v>
       </c>
-      <c r="BA24" s="31">
+      <c r="BC24" s="31">
         <v>673542</v>
       </c>
-      <c r="BC24" s="1">
+      <c r="BE24" s="1">
         <v>60</v>
       </c>
-      <c r="BD24" s="2">
+      <c r="BF24" s="2">
         <v>45</v>
       </c>
-      <c r="BE24" s="12">
+      <c r="BG24" s="12">
         <v>304</v>
       </c>
-      <c r="BF24" s="85">
+      <c r="BH24" s="85">
         <f t="shared" si="0"/>
         <v>0.30707070707070705</v>
       </c>
     </row>
-    <row r="25" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B25" s="28">
         <v>71</v>
       </c>
@@ -26990,45 +27033,45 @@
       <c r="AI25" s="14">
         <v>28486458</v>
       </c>
-      <c r="AT25" s="28">
+      <c r="AV25" s="28">
         <v>139</v>
       </c>
-      <c r="AU25" s="29">
+      <c r="AW25" s="29">
         <v>159</v>
       </c>
-      <c r="AV25" s="34">
+      <c r="AX25" s="34">
         <v>5307222</v>
       </c>
-      <c r="AW25" s="31">
+      <c r="AY25" s="31">
         <v>9668</v>
       </c>
-      <c r="AX25" s="32">
+      <c r="AZ25" s="32">
         <v>83683</v>
       </c>
-      <c r="AY25" s="30">
+      <c r="BA25" s="30">
         <v>4542309</v>
       </c>
-      <c r="AZ25" s="32">
+      <c r="BB25" s="32">
         <v>75805</v>
       </c>
-      <c r="BA25" s="31">
+      <c r="BC25" s="31">
         <v>4379129</v>
       </c>
-      <c r="BC25" s="28">
+      <c r="BE25" s="28">
         <v>71</v>
       </c>
-      <c r="BD25" s="29">
+      <c r="BF25" s="29">
         <v>66</v>
       </c>
-      <c r="BE25" s="32">
+      <c r="BG25" s="32">
         <v>823</v>
       </c>
-      <c r="BF25" s="86">
+      <c r="BH25" s="86">
         <f t="shared" si="0"/>
         <v>0.3836829836829837</v>
       </c>
     </row>
-    <row r="26" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B26" s="28">
         <v>73</v>
       </c>
@@ -27126,45 +27169,45 @@
       <c r="AI26" s="14">
         <v>36303228</v>
       </c>
-      <c r="AT26" s="1">
+      <c r="AV26" s="1">
         <v>53</v>
       </c>
-      <c r="AU26" s="2">
+      <c r="AW26" s="2">
         <v>39</v>
       </c>
-      <c r="AV26" s="19">
+      <c r="AX26" s="19">
         <v>32000000</v>
       </c>
-      <c r="AW26" s="14">
+      <c r="AY26" s="14">
         <v>1</v>
       </c>
-      <c r="AX26" s="12">
+      <c r="AZ26" s="12">
         <v>70</v>
       </c>
-      <c r="AY26" s="10">
+      <c r="BA26" s="10">
         <v>1796</v>
       </c>
-      <c r="AZ26" s="12">
+      <c r="BB26" s="12">
         <v>69</v>
       </c>
-      <c r="BA26" s="14">
+      <c r="BC26" s="14">
         <v>1796</v>
       </c>
-      <c r="BC26" s="28">
+      <c r="BE26" s="28">
         <v>73</v>
       </c>
-      <c r="BD26" s="29">
+      <c r="BF26" s="29">
         <v>68</v>
       </c>
-      <c r="BE26" s="32">
+      <c r="BG26" s="32">
         <v>650</v>
       </c>
-      <c r="BF26" s="86">
+      <c r="BH26" s="86">
         <f t="shared" si="0"/>
         <v>0.28533801580333629</v>
       </c>
     </row>
-    <row r="27" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>78</v>
       </c>
@@ -27262,45 +27305,45 @@
       <c r="AI27" s="14">
         <v>10887</v>
       </c>
-      <c r="AT27" s="1">
+      <c r="AV27" s="1">
         <v>60</v>
       </c>
-      <c r="AU27" s="2">
+      <c r="AW27" s="2">
         <v>45</v>
       </c>
-      <c r="AV27" s="19">
+      <c r="AX27" s="19">
         <v>524288000</v>
       </c>
-      <c r="AW27" s="14">
+      <c r="AY27" s="14">
         <v>1</v>
       </c>
-      <c r="AX27" s="12">
+      <c r="AZ27" s="12">
         <v>68</v>
       </c>
-      <c r="AY27" s="10">
+      <c r="BA27" s="10">
         <v>1679</v>
       </c>
-      <c r="AZ27" s="12">
+      <c r="BB27" s="12">
         <v>67</v>
       </c>
-      <c r="BA27" s="14">
+      <c r="BC27" s="14">
         <v>1679</v>
       </c>
-      <c r="BC27" s="1">
+      <c r="BE27" s="1">
         <v>78</v>
       </c>
-      <c r="BD27" s="2">
+      <c r="BF27" s="2">
         <v>57</v>
       </c>
-      <c r="BE27" s="12">
+      <c r="BG27" s="12">
         <v>454</v>
       </c>
-      <c r="BF27" s="85">
+      <c r="BH27" s="85">
         <f t="shared" si="0"/>
         <v>0.28446115288220553</v>
       </c>
     </row>
-    <row r="28" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>79</v>
       </c>
@@ -27398,45 +27441,45 @@
       <c r="AI28" s="14">
         <v>9027</v>
       </c>
-      <c r="AT28" s="1">
+      <c r="AV28" s="1">
         <v>78</v>
       </c>
-      <c r="AU28" s="2">
+      <c r="AW28" s="2">
         <v>57</v>
       </c>
-      <c r="AV28" s="19">
+      <c r="AX28" s="19">
         <v>128000000000</v>
       </c>
-      <c r="AW28" s="14">
+      <c r="AY28" s="14">
         <v>1</v>
       </c>
-      <c r="AX28" s="12">
+      <c r="AZ28" s="12">
         <v>173</v>
       </c>
-      <c r="AY28" s="10">
+      <c r="BA28" s="10">
         <v>3712</v>
       </c>
-      <c r="AZ28" s="12">
+      <c r="BB28" s="12">
         <v>170</v>
       </c>
-      <c r="BA28" s="14">
+      <c r="BC28" s="14">
         <v>3712</v>
       </c>
-      <c r="BC28" s="1">
+      <c r="BE28" s="1">
         <v>79</v>
       </c>
-      <c r="BD28" s="2">
+      <c r="BF28" s="2">
         <v>59</v>
       </c>
-      <c r="BE28" s="12">
+      <c r="BG28" s="12">
         <v>407</v>
       </c>
-      <c r="BF28" s="85">
+      <c r="BH28" s="85">
         <f t="shared" si="0"/>
         <v>0.23787258912916423</v>
       </c>
     </row>
-    <row r="29" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>83</v>
       </c>
@@ -27514,45 +27557,45 @@
       <c r="AG29" s="42"/>
       <c r="AH29" s="41"/>
       <c r="AI29" s="42"/>
-      <c r="AT29" s="1">
+      <c r="AV29" s="1">
         <v>79</v>
       </c>
-      <c r="AU29" s="2">
+      <c r="AW29" s="2">
         <v>59</v>
       </c>
-      <c r="AV29" s="19">
+      <c r="AX29" s="19">
         <v>335544320000</v>
       </c>
-      <c r="AW29" s="14">
+      <c r="AY29" s="14">
         <v>1</v>
       </c>
-      <c r="AX29" s="12">
+      <c r="AZ29" s="12">
         <v>119</v>
       </c>
-      <c r="AY29" s="10">
+      <c r="BA29" s="10">
         <v>2704</v>
       </c>
-      <c r="AZ29" s="12">
+      <c r="BB29" s="12">
         <v>118</v>
       </c>
-      <c r="BA29" s="14">
+      <c r="BC29" s="14">
         <v>2704</v>
       </c>
-      <c r="BC29" s="1">
+      <c r="BE29" s="1">
         <v>83</v>
       </c>
-      <c r="BD29" s="2">
+      <c r="BF29" s="2">
         <v>83</v>
       </c>
-      <c r="BE29" s="12">
+      <c r="BG29" s="12">
         <v>408</v>
       </c>
-      <c r="BF29" s="85">
+      <c r="BH29" s="85">
         <f t="shared" si="0"/>
         <v>0.11989421099030267</v>
       </c>
     </row>
-    <row r="30" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>98</v>
       </c>
@@ -27630,45 +27673,45 @@
       <c r="AG30" s="42"/>
       <c r="AH30" s="41"/>
       <c r="AI30" s="42"/>
-      <c r="AT30" s="1">
+      <c r="AV30" s="1">
         <v>83</v>
       </c>
-      <c r="AU30" s="2">
+      <c r="AW30" s="2">
         <v>83</v>
       </c>
-      <c r="AV30" s="19">
+      <c r="AX30" s="19">
         <v>2199023255552</v>
       </c>
-      <c r="AW30" s="14">
+      <c r="AY30" s="14">
         <v>1</v>
       </c>
-      <c r="AX30" s="12">
+      <c r="AZ30" s="12">
         <v>97</v>
       </c>
-      <c r="AY30" s="10">
+      <c r="BA30" s="10">
         <v>2110</v>
       </c>
-      <c r="AZ30" s="12">
+      <c r="BB30" s="12">
         <v>98</v>
       </c>
-      <c r="BA30" s="14">
+      <c r="BC30" s="14">
         <v>2110</v>
       </c>
-      <c r="BC30" s="1">
+      <c r="BE30" s="1">
         <v>98</v>
       </c>
-      <c r="BD30" s="2">
+      <c r="BF30" s="2">
         <v>73</v>
       </c>
-      <c r="BE30" s="12">
+      <c r="BG30" s="12">
         <v>510</v>
       </c>
-      <c r="BF30" s="85">
+      <c r="BH30" s="85">
         <f t="shared" si="0"/>
         <v>0.19406392694063926</v>
       </c>
     </row>
-    <row r="31" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>103</v>
       </c>
@@ -27746,45 +27789,45 @@
       <c r="AG31" s="42"/>
       <c r="AH31" s="41"/>
       <c r="AI31" s="42"/>
-      <c r="AT31" s="1">
+      <c r="AV31" s="1">
         <v>98</v>
       </c>
-      <c r="AU31" s="2">
+      <c r="AW31" s="2">
         <v>73</v>
       </c>
-      <c r="AV31" s="19">
+      <c r="AX31" s="19">
         <v>214748364800000</v>
       </c>
-      <c r="AW31" s="14">
+      <c r="AY31" s="14">
         <v>1</v>
-      </c>
-      <c r="AX31" s="12">
-        <v>207</v>
-      </c>
-      <c r="AY31" s="10">
-        <v>4184</v>
       </c>
       <c r="AZ31" s="12">
         <v>207</v>
       </c>
-      <c r="BA31" s="14">
+      <c r="BA31" s="10">
         <v>4184</v>
       </c>
-      <c r="BC31" s="1">
+      <c r="BB31" s="12">
+        <v>207</v>
+      </c>
+      <c r="BC31" s="14">
+        <v>4184</v>
+      </c>
+      <c r="BE31" s="1">
         <v>103</v>
       </c>
-      <c r="BD31" s="2">
+      <c r="BF31" s="2">
         <v>75</v>
       </c>
-      <c r="BE31" s="12">
+      <c r="BG31" s="12">
         <v>607</v>
       </c>
-      <c r="BF31" s="85">
+      <c r="BH31" s="85">
         <f t="shared" si="0"/>
         <v>0.21873873873873872</v>
       </c>
     </row>
-    <row r="32" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>128</v>
       </c>
@@ -27862,45 +27905,45 @@
       <c r="AG32" s="42"/>
       <c r="AH32" s="41"/>
       <c r="AI32" s="42"/>
-      <c r="AT32" s="1">
+      <c r="AV32" s="1">
         <v>103</v>
       </c>
-      <c r="AU32" s="2">
+      <c r="AW32" s="2">
         <v>75</v>
       </c>
-      <c r="AV32" s="19">
+      <c r="AX32" s="19">
         <v>512000000000000</v>
       </c>
-      <c r="AW32" s="14">
+      <c r="AY32" s="14">
         <v>1</v>
       </c>
-      <c r="AX32" s="12">
+      <c r="AZ32" s="12">
         <v>304</v>
       </c>
-      <c r="AY32" s="10">
+      <c r="BA32" s="10">
         <v>5617</v>
       </c>
-      <c r="AZ32" s="12">
+      <c r="BB32" s="12">
         <v>299</v>
       </c>
-      <c r="BA32" s="14">
+      <c r="BC32" s="14">
         <v>5617</v>
       </c>
-      <c r="BC32" s="1">
+      <c r="BE32" s="1">
         <v>128</v>
       </c>
-      <c r="BD32" s="2">
+      <c r="BF32" s="2">
         <v>93</v>
       </c>
-      <c r="BE32" s="12">
+      <c r="BG32" s="12">
         <v>760</v>
       </c>
-      <c r="BF32" s="85">
+      <c r="BH32" s="85">
         <f t="shared" si="0"/>
         <v>0.17765310892940628</v>
       </c>
     </row>
-    <row r="33" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B33" s="28">
         <v>139</v>
       </c>
@@ -27978,45 +28021,45 @@
       <c r="AG33" s="42"/>
       <c r="AH33" s="41"/>
       <c r="AI33" s="42"/>
-      <c r="AT33" s="1">
+      <c r="AV33" s="1">
         <v>128</v>
       </c>
-      <c r="AU33" s="2">
+      <c r="AW33" s="2">
         <v>93</v>
       </c>
-      <c r="AV33" s="19">
+      <c r="AX33" s="19">
         <v>2.048E+18</v>
       </c>
-      <c r="AW33" s="14">
+      <c r="AY33" s="14">
         <v>1</v>
       </c>
-      <c r="AX33" s="12">
+      <c r="AZ33" s="12">
         <v>464</v>
       </c>
-      <c r="AY33" s="10">
+      <c r="BA33" s="10">
         <v>7500</v>
       </c>
-      <c r="AZ33" s="12">
+      <c r="BB33" s="12">
         <v>433</v>
       </c>
-      <c r="BA33" s="14">
+      <c r="BC33" s="14">
         <v>7500</v>
       </c>
-      <c r="BC33" s="28">
+      <c r="BE33" s="28">
         <v>139</v>
       </c>
-      <c r="BD33" s="29">
+      <c r="BF33" s="29">
         <v>159</v>
       </c>
-      <c r="BE33" s="32">
+      <c r="BG33" s="32">
         <v>2750</v>
       </c>
-      <c r="BF33" s="86">
+      <c r="BH33" s="86">
         <f t="shared" si="0"/>
         <v>0.2189316137250219</v>
       </c>
     </row>
-    <row r="34" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>163</v>
       </c>
@@ -28094,45 +28137,45 @@
       <c r="AG34" s="42"/>
       <c r="AH34" s="41"/>
       <c r="AI34" s="42"/>
-      <c r="AT34" s="1">
+      <c r="AV34" s="1">
         <v>163</v>
       </c>
-      <c r="AU34" s="2">
+      <c r="AW34" s="2">
         <v>163</v>
       </c>
-      <c r="AV34" s="19">
+      <c r="AX34" s="19">
         <v>2.41785163922925E+22</v>
       </c>
-      <c r="AW34" s="14">
+      <c r="AY34" s="14">
         <v>1</v>
       </c>
-      <c r="AX34" s="12">
+      <c r="AZ34" s="12">
         <v>484</v>
       </c>
-      <c r="AY34" s="10">
+      <c r="BA34" s="10">
         <v>7602</v>
       </c>
-      <c r="AZ34" s="12">
+      <c r="BB34" s="12">
         <v>475</v>
       </c>
-      <c r="BA34" s="14">
+      <c r="BC34" s="14">
         <v>7602</v>
       </c>
-      <c r="BC34" s="1">
+      <c r="BE34" s="1">
         <v>163</v>
       </c>
-      <c r="BD34" s="2">
+      <c r="BF34" s="2">
         <v>163</v>
       </c>
-      <c r="BE34" s="12">
+      <c r="BG34" s="12">
         <v>818</v>
       </c>
-      <c r="BF34" s="85">
+      <c r="BH34" s="85">
         <f t="shared" si="0"/>
         <v>6.1955616147845186E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="4">
         <v>193</v>
       </c>
@@ -28210,45 +28253,45 @@
       <c r="AG35" s="44"/>
       <c r="AH35" s="43"/>
       <c r="AI35" s="44"/>
-      <c r="AT35" s="4">
+      <c r="AV35" s="4">
         <v>193</v>
       </c>
-      <c r="AU35" s="5">
+      <c r="AW35" s="5">
         <v>143</v>
       </c>
-      <c r="AV35" s="20">
+      <c r="AX35" s="20">
         <v>2.30584300921369E+28</v>
       </c>
-      <c r="AW35" s="15">
+      <c r="AY35" s="15">
         <v>1</v>
       </c>
-      <c r="AX35" s="13">
+      <c r="AZ35" s="13">
         <v>862</v>
       </c>
-      <c r="AY35" s="11">
+      <c r="BA35" s="11">
         <v>12787</v>
       </c>
-      <c r="AZ35" s="13">
+      <c r="BB35" s="13">
         <v>898</v>
       </c>
-      <c r="BA35" s="15">
+      <c r="BC35" s="15">
         <v>12787</v>
       </c>
-      <c r="BC35" s="4">
+      <c r="BE35" s="4">
         <v>193</v>
       </c>
-      <c r="BD35" s="5">
+      <c r="BF35" s="5">
         <v>143</v>
       </c>
-      <c r="BE35" s="13">
+      <c r="BG35" s="13">
         <v>1025</v>
       </c>
-      <c r="BF35" s="87">
+      <c r="BH35" s="87">
         <f t="shared" si="0"/>
         <v>0.10095538264552349</v>
       </c>
     </row>
-    <row r="36" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:60" x14ac:dyDescent="0.3">
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
@@ -28260,15 +28303,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="BG2:BH2"/>
     <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AV2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="BB2:BC2"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:H2"/>
@@ -28276,9 +28322,6 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28292,122 +28335,122 @@
       <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.85546875" style="27"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.28515625" style="27" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="27" customWidth="1"/>
-    <col min="23" max="23" width="13.7109375" style="27" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" style="27" customWidth="1"/>
-    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="8.88671875" style="27"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.33203125" style="27" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" customWidth="1"/>
+    <col min="20" max="20" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.44140625" style="27" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" style="27" customWidth="1"/>
+    <col min="24" max="24" width="13.5546875" style="27" customWidth="1"/>
+    <col min="25" max="25" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="96" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="98" t="s">
+    <row r="1" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="96" t="s">
+      <c r="C2" s="102"/>
+      <c r="D2" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="102"/>
+      <c r="F2" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="98"/>
-      <c r="L2" s="96" t="s">
+      <c r="K2" s="101"/>
+      <c r="L2" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="97"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="102"/>
       <c r="V2" s="95"/>
       <c r="W2" s="95"/>
       <c r="X2" s="95"/>
-      <c r="AC2" s="96" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="98" t="s">
+      <c r="AC2" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="96" t="s">
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="96" t="s">
+      <c r="AL2" s="102"/>
+      <c r="AM2" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="102"/>
+      <c r="AQ2" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR2" s="101"/>
+      <c r="AS2" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="98"/>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT2" s="98"/>
-      <c r="AU2" s="98"/>
-      <c r="AV2" s="97"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="102"/>
     </row>
-    <row r="3" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
@@ -28415,10 +28458,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>0</v>
@@ -28433,40 +28476,40 @@
         <v>3</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="18" t="s">
-        <v>41</v>
-      </c>
       <c r="P3" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="T3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -28475,10 +28518,10 @@
         <v>15</v>
       </c>
       <c r="Z3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="24" t="s">
         <v>36</v>
-      </c>
-      <c r="AA3" s="24" t="s">
-        <v>37</v>
       </c>
       <c r="AC3" s="16" t="s">
         <v>0</v>
@@ -28487,10 +28530,10 @@
         <v>1</v>
       </c>
       <c r="AE3" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF3" s="71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG3" s="16" t="s">
         <v>0</v>
@@ -28505,43 +28548,43 @@
         <v>3</v>
       </c>
       <c r="AK3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="AM3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="AO3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AP3" s="18" t="s">
-        <v>41</v>
-      </c>
       <c r="AQ3" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="AS3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="AU3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="18" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="4" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>11</v>
       </c>
@@ -28688,7 +28731,7 @@
         <v>0.91455834916210532</v>
       </c>
     </row>
-    <row r="5" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B5" s="28">
         <v>17</v>
       </c>
@@ -28835,7 +28878,7 @@
         <v>0.85830793949803308</v>
       </c>
     </row>
-    <row r="6" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>19</v>
       </c>
@@ -28982,7 +29025,7 @@
         <v>0.84384251036116042</v>
       </c>
     </row>
-    <row r="7" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B7" s="28">
         <v>24</v>
       </c>
@@ -29129,7 +29172,7 @@
         <v>0.79241052893797226</v>
       </c>
     </row>
-    <row r="8" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>22</v>
       </c>
@@ -29276,7 +29319,7 @@
         <v>0.74115317990596385</v>
       </c>
     </row>
-    <row r="9" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B9" s="28">
         <v>43</v>
       </c>
@@ -29423,7 +29466,7 @@
         <v>0.74203178102323875</v>
       </c>
     </row>
-    <row r="10" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>28</v>
       </c>
@@ -29570,7 +29613,7 @@
         <v>0.65677861854132469</v>
       </c>
     </row>
-    <row r="11" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>27</v>
       </c>
@@ -29717,7 +29760,7 @@
         <v>0.71737563085796685</v>
       </c>
     </row>
-    <row r="12" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B12" s="28">
         <v>31</v>
       </c>
@@ -29864,7 +29907,7 @@
         <v>0.71673999580976322</v>
       </c>
     </row>
-    <row r="13" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B13" s="28">
         <v>53</v>
       </c>
@@ -30011,7 +30054,7 @@
         <v>0.69084745762711863</v>
       </c>
     </row>
-    <row r="14" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B14" s="28">
         <v>38</v>
       </c>
@@ -30158,7 +30201,7 @@
         <v>0.19838875221133959</v>
       </c>
     </row>
-    <row r="15" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B15" s="28">
         <v>34</v>
       </c>
@@ -30305,7 +30348,7 @@
         <v>0.67461430575035064</v>
       </c>
     </row>
-    <row r="16" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B16" s="28">
         <v>41</v>
       </c>
@@ -30452,7 +30495,7 @@
         <v>0.1695882933839743</v>
       </c>
     </row>
-    <row r="17" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>35</v>
       </c>
@@ -30599,7 +30642,7 @@
         <v>0.64896508467489022</v>
       </c>
     </row>
-    <row r="18" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B18" s="28">
         <v>45</v>
       </c>
@@ -30746,7 +30789,7 @@
         <v>0.51714939024390238</v>
       </c>
     </row>
-    <row r="19" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B19" s="28">
         <v>40</v>
       </c>
@@ -30893,7 +30936,7 @@
         <v>0.6079136690647482</v>
       </c>
     </row>
-    <row r="20" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>41</v>
       </c>
@@ -31040,7 +31083,7 @@
         <v>0.467614916439692</v>
       </c>
     </row>
-    <row r="21" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B21" s="28">
         <v>45</v>
       </c>
@@ -31187,7 +31230,7 @@
         <v>0.45187571204930865</v>
       </c>
     </row>
-    <row r="22" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>43</v>
       </c>
@@ -31334,7 +31377,7 @@
         <v>0.22284811002907648</v>
       </c>
     </row>
-    <row r="23" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B23" s="28">
         <v>73</v>
       </c>
@@ -31481,7 +31524,7 @@
         <v>0.57561436672967858</v>
       </c>
     </row>
-    <row r="24" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B24" s="28">
         <v>71</v>
       </c>
@@ -31628,7 +31671,7 @@
         <v>0.53754351069119843</v>
       </c>
     </row>
-    <row r="25" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B25" s="28">
         <v>139</v>
       </c>
@@ -31775,7 +31818,7 @@
         <v>0.16255800545591445</v>
       </c>
     </row>
-    <row r="26" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>53</v>
       </c>
@@ -31922,7 +31965,7 @@
         <v>0.42376479329193867</v>
       </c>
     </row>
-    <row r="27" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>60</v>
       </c>
@@ -32069,7 +32112,7 @@
         <v>0.4376731301939058</v>
       </c>
     </row>
-    <row r="28" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>78</v>
       </c>
@@ -32216,7 +32259,7 @@
         <v>0.272958713277063</v>
       </c>
     </row>
-    <row r="29" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>79</v>
       </c>
@@ -32363,7 +32406,7 @@
         <v>0.26848711999524066</v>
       </c>
     </row>
-    <row r="30" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>83</v>
       </c>
@@ -32510,7 +32553,7 @@
         <v>0.21811117685806472</v>
       </c>
     </row>
-    <row r="31" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>98</v>
       </c>
@@ -32657,7 +32700,7 @@
         <v>0.26884139482564678</v>
       </c>
     </row>
-    <row r="32" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>103</v>
       </c>
@@ -32804,7 +32847,7 @@
         <v>0.19607843137254902</v>
       </c>
     </row>
-    <row r="33" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>128</v>
       </c>
@@ -32951,7 +32994,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>163</v>
       </c>
@@ -33098,7 +33141,7 @@
         <v>0.17118628557484061</v>
       </c>
     </row>
-    <row r="35" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="4">
         <v>193</v>
       </c>
@@ -33278,35 +33321,35 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="102"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="106"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -33320,25 +33363,25 @@
         <v>3</v>
       </c>
       <c r="E2" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>32</v>
-      </c>
       <c r="G2" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>32</v>
-      </c>
       <c r="I2" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="27" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="27">
         <v>11</v>
       </c>
@@ -33370,7 +33413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="27">
         <v>17</v>
       </c>
@@ -33402,7 +33445,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <v>19</v>
       </c>
@@ -33434,7 +33477,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="27">
         <v>22</v>
       </c>
@@ -33466,7 +33509,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="27">
         <v>24</v>
       </c>
@@ -33498,7 +33541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="27">
         <v>27</v>
       </c>
@@ -33530,7 +33573,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="27">
         <v>28</v>
       </c>
@@ -33562,7 +33605,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="27">
         <v>31</v>
       </c>
@@ -33594,7 +33637,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
         <v>34</v>
       </c>
@@ -33626,7 +33669,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="27">
         <v>35</v>
       </c>
@@ -33658,7 +33701,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="27">
         <v>38</v>
       </c>
@@ -33690,7 +33733,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="27">
         <v>40</v>
       </c>
@@ -33722,7 +33765,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
         <v>41</v>
       </c>
@@ -33754,7 +33797,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="27">
         <v>41</v>
       </c>
@@ -33786,7 +33829,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="27">
         <v>43</v>
       </c>
@@ -33818,7 +33861,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="27">
         <v>43</v>
       </c>
@@ -33850,7 +33893,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="27">
         <v>45</v>
       </c>
@@ -33876,7 +33919,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="27">
         <v>45</v>
       </c>
@@ -33902,7 +33945,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="27">
         <v>53</v>
       </c>
@@ -33928,7 +33971,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="27">
         <v>53</v>
       </c>
@@ -33954,7 +33997,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="27">
         <v>60</v>
       </c>
@@ -33980,7 +34023,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="27">
         <v>71</v>
       </c>
@@ -34006,7 +34049,7 @@
         <v>4493</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="27">
         <v>73</v>
       </c>
@@ -34032,7 +34075,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="27">
         <v>78</v>
       </c>
@@ -34058,7 +34101,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
         <v>79</v>
       </c>
@@ -34084,7 +34127,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
         <v>83</v>
       </c>
@@ -34110,7 +34153,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="27">
         <v>98</v>
       </c>
@@ -34136,7 +34179,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="27">
         <v>103</v>
       </c>
@@ -34162,7 +34205,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="27">
         <v>128</v>
       </c>
@@ -34188,7 +34231,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="27">
         <v>139</v>
       </c>
@@ -34214,7 +34257,7 @@
         <v>3998</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="27">
         <v>163</v>
       </c>
@@ -34240,7 +34283,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="27">
         <v>193</v>
       </c>
@@ -34266,7 +34309,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
@@ -34274,7 +34317,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
@@ -34282,7 +34325,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
@@ -34290,7 +34333,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
@@ -34298,7 +34341,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
@@ -34306,7 +34349,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
@@ -34314,7 +34357,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
@@ -34322,7 +34365,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
@@ -34330,7 +34373,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
@@ -34338,7 +34381,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
@@ -34346,7 +34389,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
@@ -34354,7 +34397,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
@@ -34362,7 +34405,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
@@ -34370,7 +34413,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
@@ -34378,7 +34421,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
@@ -34386,7 +34429,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
@@ -34394,7 +34437,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
@@ -34420,40 +34463,40 @@
       <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="96" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="96" t="s">
+      <c r="F1" s="101"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -34467,7 +34510,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>4</v>
@@ -34476,7 +34519,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>4</v>
@@ -34485,16 +34528,16 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>17</v>
       </c>
@@ -34538,7 +34581,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>43</v>
       </c>
@@ -34582,7 +34625,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>11</v>
       </c>
@@ -34626,7 +34669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>19</v>
       </c>
@@ -34670,7 +34713,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>22</v>
       </c>
@@ -34714,7 +34757,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>27</v>
       </c>
@@ -34758,7 +34801,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>24</v>
       </c>
@@ -34802,7 +34845,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>28</v>
       </c>
@@ -34846,7 +34889,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>35</v>
       </c>
@@ -34890,7 +34933,7 @@
         <v>3623</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>31</v>
       </c>
@@ -34934,7 +34977,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>41</v>
       </c>
@@ -34978,7 +35021,7 @@
         <v>6773</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43</v>
       </c>
@@ -35022,7 +35065,7 @@
         <v>15661</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
         <v>38</v>
       </c>
@@ -35066,7 +35109,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>34</v>
       </c>
@@ -35110,7 +35153,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>53</v>
       </c>
@@ -35154,7 +35197,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
         <v>45</v>
       </c>
@@ -35198,7 +35241,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <v>41</v>
       </c>
@@ -35242,7 +35285,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>53</v>
       </c>
@@ -35286,7 +35329,7 @@
         <v>31116</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
         <v>40</v>
       </c>
@@ -35330,7 +35373,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
         <v>71</v>
       </c>
@@ -35374,7 +35417,7 @@
         <v>18268</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>60</v>
       </c>
@@ -35418,7 +35461,7 @@
         <v>61997</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
         <v>73</v>
       </c>
@@ -35462,7 +35505,7 @@
         <v>7902</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
         <v>45</v>
       </c>
@@ -35506,7 +35549,7 @@
         <v>13055</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>78</v>
       </c>
@@ -35550,7 +35593,7 @@
         <v>381369</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>79</v>
       </c>
@@ -35594,7 +35637,7 @@
         <v>451228</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="47"/>
@@ -35606,7 +35649,7 @@
       <c r="I28" s="49"/>
       <c r="J28" s="49"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="47"/>
@@ -35618,7 +35661,7 @@
       <c r="I29" s="49"/>
       <c r="J29" s="49"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="47"/>
@@ -35630,7 +35673,7 @@
       <c r="I30" s="49"/>
       <c r="J30" s="49"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="47"/>
@@ -35642,7 +35685,7 @@
       <c r="I31" s="49"/>
       <c r="J31" s="49"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="47"/>
@@ -35654,7 +35697,7 @@
       <c r="I32" s="49"/>
       <c r="J32" s="49"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="47"/>
@@ -35666,7 +35709,7 @@
       <c r="I33" s="49"/>
       <c r="J33" s="49"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="C34" s="47"/>
@@ -35700,29 +35743,29 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="12" style="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
       <c r="E1" s="46"/>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -35736,7 +35779,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>13</v>
@@ -35754,7 +35797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="27">
         <v>193</v>
       </c>
@@ -35777,7 +35820,7 @@
       <c r="G3" s="27"/>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="27">
         <v>163</v>
       </c>
@@ -35802,7 +35845,7 @@
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <v>128</v>
       </c>
@@ -35827,7 +35870,7 @@
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="27">
         <v>103</v>
       </c>
@@ -35852,7 +35895,7 @@
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="27">
         <v>98</v>
       </c>
@@ -35877,7 +35920,7 @@
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="27">
         <v>83</v>
       </c>
@@ -35902,7 +35945,7 @@
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="27">
         <v>79</v>
       </c>
@@ -35938,7 +35981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="27">
         <v>78</v>
       </c>
@@ -35974,7 +36017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
         <v>60</v>
       </c>
@@ -36010,7 +36053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="27">
         <v>53</v>
       </c>
@@ -36046,7 +36089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="27">
         <v>43</v>
       </c>
@@ -36082,7 +36125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="27">
         <v>41</v>
       </c>
@@ -36118,7 +36161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
         <v>35</v>
       </c>
@@ -36154,7 +36197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="27">
         <v>27</v>
       </c>
@@ -36190,7 +36233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="27">
         <v>28</v>
       </c>
@@ -36226,7 +36269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="27">
         <v>45</v>
       </c>
@@ -36262,7 +36305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="27">
         <v>22</v>
       </c>
@@ -36298,7 +36341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="27">
         <v>71</v>
       </c>
@@ -36334,7 +36377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="27">
         <v>41</v>
       </c>
@@ -36370,7 +36413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="27">
         <v>38</v>
       </c>
@@ -36406,7 +36449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="27">
         <v>139</v>
       </c>
@@ -36431,7 +36474,7 @@
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="27">
         <v>19</v>
       </c>
@@ -36467,7 +36510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="27">
         <v>34</v>
       </c>
@@ -36503,7 +36546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="27">
         <v>43</v>
       </c>
@@ -36539,7 +36582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
         <v>11</v>
       </c>
@@ -36575,7 +36618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
         <v>73</v>
       </c>
@@ -36611,7 +36654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="27">
         <v>17</v>
       </c>
@@ -36647,7 +36690,7 @@
         <v>0.89523809523809528</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="27">
         <v>31</v>
       </c>
@@ -36683,7 +36726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="27">
         <v>53</v>
       </c>
@@ -36719,7 +36762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="27">
         <v>24</v>
       </c>
@@ -36755,7 +36798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="27">
         <v>45</v>
       </c>
@@ -36791,7 +36834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="27">
         <v>40</v>
       </c>
@@ -36827,23 +36870,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="102" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="102"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
       <c r="E36" s="46"/>
-      <c r="F36" s="102" t="s">
+      <c r="F36" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="102"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="102"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
         <v>0</v>
       </c>
@@ -36872,7 +36915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="27">
         <v>11</v>
       </c>
@@ -36904,7 +36947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="27">
         <v>19</v>
       </c>
@@ -36936,7 +36979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="27">
         <v>22</v>
       </c>
@@ -36968,7 +37011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="27">
         <v>28</v>
       </c>
@@ -37000,7 +37043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="27">
         <v>27</v>
       </c>
@@ -37032,7 +37075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="27">
         <v>35</v>
       </c>
@@ -37064,7 +37107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="27">
         <v>41</v>
       </c>
@@ -37096,7 +37139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="27">
         <v>43</v>
       </c>
@@ -37128,7 +37171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="27">
         <v>53</v>
       </c>
@@ -37160,7 +37203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="27">
         <v>60</v>
       </c>
@@ -37192,7 +37235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="27">
         <v>78</v>
       </c>
@@ -37224,7 +37267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="27">
         <v>79</v>
       </c>
@@ -37256,7 +37299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="27">
         <v>83</v>
       </c>
@@ -37277,7 +37320,7 @@
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="27">
         <v>98</v>
       </c>
@@ -37298,7 +37341,7 @@
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="27">
         <v>103</v>
       </c>
@@ -37319,7 +37362,7 @@
       <c r="I52" s="27"/>
       <c r="J52" s="27"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="27">
         <v>128</v>
       </c>
@@ -37340,7 +37383,7 @@
       <c r="I53" s="27"/>
       <c r="J53" s="27"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="27">
         <v>163</v>
       </c>
@@ -37361,7 +37404,7 @@
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="27">
         <v>193</v>
       </c>
@@ -37382,23 +37425,23 @@
       <c r="I55" s="27"/>
       <c r="J55" s="27"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="102" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="102"/>
-      <c r="C57" s="102"/>
-      <c r="D57" s="102"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
       <c r="E57" s="46"/>
-      <c r="F57" s="102" t="s">
+      <c r="F57" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="G57" s="102"/>
-      <c r="H57" s="102"/>
-      <c r="I57" s="102"/>
-      <c r="J57" s="102"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="106"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
         <v>0</v>
       </c>
@@ -37427,7 +37470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="27">
         <v>17</v>
       </c>
@@ -37459,7 +37502,7 @@
         <v>0.89523809523809528</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="27">
         <v>24</v>
       </c>
@@ -37491,7 +37534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="27">
         <v>43</v>
       </c>
@@ -37523,7 +37566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="27">
         <v>31</v>
       </c>
@@ -37555,7 +37598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="27">
         <v>53</v>
       </c>
@@ -37587,7 +37630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="27">
         <v>38</v>
       </c>
@@ -37619,7 +37662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="27">
         <v>34</v>
       </c>
@@ -37651,7 +37694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="27">
         <v>41</v>
       </c>
@@ -37683,7 +37726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="27">
         <v>45</v>
       </c>
@@ -37715,7 +37758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="27">
         <v>40</v>
       </c>
@@ -37747,7 +37790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="27">
         <v>45</v>
       </c>
@@ -37779,7 +37822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="27">
         <v>73</v>
       </c>
@@ -37811,7 +37854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="27">
         <v>71</v>
       </c>
@@ -37843,7 +37886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="27">
         <v>139</v>
       </c>
@@ -37885,73 +37928,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10377B29-FC46-4314-8E58-A3F056906CFA}">
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5546875" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.44140625" style="27" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="96" t="s">
+    <row r="1" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="96" t="s">
+      <c r="F1" s="101"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="98"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="96" t="s">
+      <c r="I1" s="101"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="98"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="96" t="s">
+      <c r="L1" s="101"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="98"/>
-      <c r="P1" s="97"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="102"/>
       <c r="R1" s="27"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
     </row>
-    <row r="2" spans="1:24" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -37965,7 +38008,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>4</v>
@@ -37974,7 +38017,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>4</v>
@@ -37983,7 +38026,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
@@ -37992,7 +38035,7 @@
         <v>12</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
@@ -38000,24 +38043,24 @@
       <c r="P2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="104" t="s">
+      <c r="Q2" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="105" t="s">
+      <c r="T2" s="97" t="s">
         <v>48</v>
-      </c>
-      <c r="T2" s="105" t="s">
-        <v>49</v>
       </c>
       <c r="U2" s="24"/>
       <c r="V2" s="24"/>
       <c r="W2" s="24"/>
       <c r="X2" s="24"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>11</v>
       </c>
@@ -38067,23 +38110,23 @@
         <v>33</v>
       </c>
       <c r="Q3" s="26">
-        <f>K3-E3</f>
+        <f t="shared" ref="Q3:Q34" si="0">K3-E3</f>
         <v>0</v>
       </c>
-      <c r="R3" s="107">
+      <c r="R3" s="99">
         <f>(E3-K3)/E3</f>
         <v>0</v>
       </c>
       <c r="S3" s="23">
-        <f>H3-E3</f>
+        <f t="shared" ref="S3:S23" si="1">H3-E3</f>
         <v>2</v>
       </c>
-      <c r="T3" s="106">
+      <c r="T3" s="98">
         <f>(H3-E3)/H3</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>17</v>
       </c>
@@ -38133,23 +38176,23 @@
         <v>70</v>
       </c>
       <c r="Q4" s="26">
-        <f>K4-E4</f>
+        <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="R4" s="107">
-        <f t="shared" ref="R4:R34" si="0">(E4-K4)/E4</f>
+      <c r="R4" s="99">
+        <f t="shared" ref="R4:R34" si="2">(E4-K4)/E4</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="S4" s="23">
-        <f>H4-E4</f>
+        <f t="shared" si="1"/>
         <v>-14</v>
       </c>
-      <c r="T4" s="106">
-        <f t="shared" ref="T4:T27" si="1">(H4-E4)/H4</f>
+      <c r="T4" s="98">
+        <f t="shared" ref="T4:T26" si="3">(H4-E4)/H4</f>
         <v>-0.3888888888888889</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>19</v>
       </c>
@@ -38199,19 +38242,19 @@
         <v>172</v>
       </c>
       <c r="Q5" s="26">
-        <f>K5-E5</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="R5" s="107">
-        <f t="shared" si="0"/>
+      <c r="R5" s="99">
+        <f t="shared" si="2"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="S5" s="23">
-        <f>H5-E5</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T5" s="106">
-        <f t="shared" si="1"/>
+      <c r="T5" s="98">
+        <f t="shared" si="3"/>
         <v>0.3888888888888889</v>
       </c>
       <c r="U5" s="26"/>
@@ -38219,7 +38262,7 @@
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>24</v>
       </c>
@@ -38269,23 +38312,23 @@
         <v>104</v>
       </c>
       <c r="Q6" s="26">
-        <f>K6-E6</f>
+        <f t="shared" si="0"/>
         <v>-12</v>
       </c>
-      <c r="R6" s="107">
-        <f t="shared" si="0"/>
+      <c r="R6" s="99">
+        <f t="shared" si="2"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="S6" s="23">
-        <f>H6-E6</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="T6" s="106">
-        <f t="shared" si="1"/>
+      <c r="T6" s="98">
+        <f t="shared" si="3"/>
         <v>0.21182266009852216</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>22</v>
       </c>
@@ -38335,19 +38378,19 @@
         <v>319</v>
       </c>
       <c r="Q7" s="26">
-        <f>K7-E7</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="R7" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="S7" s="23">
-        <f>H7-E7</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="T7" s="106">
-        <f t="shared" si="1"/>
+      <c r="T7" s="98">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="U7" s="26"/>
@@ -38355,7 +38398,7 @@
       <c r="W7" s="9"/>
       <c r="X7" s="26"/>
     </row>
-    <row r="8" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>43</v>
       </c>
@@ -38405,26 +38448,26 @@
         <v>437</v>
       </c>
       <c r="Q8" s="26">
-        <f>K8-E8</f>
+        <f t="shared" si="0"/>
         <v>-19</v>
       </c>
-      <c r="R8" s="107">
-        <f t="shared" si="0"/>
+      <c r="R8" s="99">
+        <f t="shared" si="2"/>
         <v>5.7750759878419454E-2</v>
       </c>
       <c r="S8" s="23">
-        <f>H8-E8</f>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
-      <c r="T8" s="106">
-        <f t="shared" si="1"/>
+      <c r="T8" s="98">
+        <f t="shared" si="3"/>
         <v>-1.8575851393188854E-2</v>
       </c>
       <c r="U8" s="70"/>
       <c r="V8" s="70"/>
       <c r="W8" s="70"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>28</v>
       </c>
@@ -38474,19 +38517,19 @@
         <v>1010</v>
       </c>
       <c r="Q9" s="26">
-        <f>K9-E9</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="R9" s="107">
-        <f t="shared" si="0"/>
+      <c r="R9" s="99">
+        <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
       <c r="S9" s="23">
-        <f>H9-E9</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="T9" s="106">
-        <f t="shared" si="1"/>
+      <c r="T9" s="98">
+        <f t="shared" si="3"/>
         <v>0.70930232558139539</v>
       </c>
       <c r="U9" s="26"/>
@@ -38494,7 +38537,7 @@
       <c r="W9" s="9"/>
       <c r="X9" s="26"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>27</v>
       </c>
@@ -38544,19 +38587,19 @@
         <v>807</v>
       </c>
       <c r="Q10" s="26">
-        <f>K10-E10</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="R10" s="107">
-        <f t="shared" si="0"/>
+      <c r="R10" s="99">
+        <f t="shared" si="2"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="S10" s="23">
-        <f>H10-E10</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="T10" s="106">
-        <f t="shared" si="1"/>
+      <c r="T10" s="98">
+        <f t="shared" si="3"/>
         <v>0.50943396226415094</v>
       </c>
       <c r="U10" s="26"/>
@@ -38564,7 +38607,7 @@
       <c r="W10" s="9"/>
       <c r="X10" s="26"/>
     </row>
-    <row r="11" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>31</v>
       </c>
@@ -38614,26 +38657,26 @@
         <v>434</v>
       </c>
       <c r="Q11" s="26">
-        <f>K11-E11</f>
+        <f t="shared" si="0"/>
         <v>-901</v>
       </c>
-      <c r="R11" s="107">
-        <f t="shared" si="0"/>
+      <c r="R11" s="99">
+        <f t="shared" si="2"/>
         <v>0.21229971724787935</v>
       </c>
       <c r="S11" s="23">
-        <f>H11-E11</f>
+        <f t="shared" si="1"/>
         <v>241</v>
       </c>
-      <c r="T11" s="106">
-        <f t="shared" si="1"/>
+      <c r="T11" s="98">
+        <f t="shared" si="3"/>
         <v>5.3734671125975471E-2</v>
       </c>
       <c r="U11" s="70"/>
       <c r="V11" s="70"/>
       <c r="X11" s="70"/>
     </row>
-    <row r="12" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>53</v>
       </c>
@@ -38683,26 +38726,26 @@
         <v>1102</v>
       </c>
       <c r="Q12" s="26">
-        <f>K12-E12</f>
+        <f t="shared" si="0"/>
         <v>-536</v>
       </c>
-      <c r="R12" s="107">
-        <f t="shared" si="0"/>
+      <c r="R12" s="99">
+        <f t="shared" si="2"/>
         <v>0.10812991728868267</v>
       </c>
       <c r="S12" s="23">
-        <f>H12-E12</f>
+        <f t="shared" si="1"/>
         <v>1210</v>
       </c>
-      <c r="T12" s="106">
-        <f t="shared" si="1"/>
+      <c r="T12" s="98">
+        <f t="shared" si="3"/>
         <v>0.19620561050754012</v>
       </c>
       <c r="U12" s="70"/>
       <c r="V12" s="70"/>
       <c r="X12" s="70"/>
     </row>
-    <row r="13" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>38</v>
       </c>
@@ -38752,26 +38795,26 @@
         <v>255</v>
       </c>
       <c r="Q13" s="26">
-        <f>K13-E13</f>
+        <f t="shared" si="0"/>
         <v>-176</v>
       </c>
-      <c r="R13" s="107">
-        <f t="shared" si="0"/>
+      <c r="R13" s="99">
+        <f t="shared" si="2"/>
         <v>0.12290502793296089</v>
       </c>
       <c r="S13" s="23">
-        <f>H13-E13</f>
+        <f t="shared" si="1"/>
         <v>811</v>
       </c>
-      <c r="T13" s="106">
-        <f t="shared" si="1"/>
+      <c r="T13" s="98">
+        <f t="shared" si="3"/>
         <v>0.36156932679447168</v>
       </c>
       <c r="U13" s="70"/>
       <c r="V13" s="70"/>
       <c r="X13" s="70"/>
     </row>
-    <row r="14" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>34</v>
       </c>
@@ -38821,26 +38864,26 @@
         <v>1837</v>
       </c>
       <c r="Q14" s="26">
-        <f>K14-E14</f>
+        <f t="shared" si="0"/>
         <v>-169</v>
       </c>
-      <c r="R14" s="107">
-        <f t="shared" si="0"/>
+      <c r="R14" s="99">
+        <f t="shared" si="2"/>
         <v>0.18510405257393209</v>
       </c>
       <c r="S14" s="23">
-        <f>H14-E14</f>
+        <f t="shared" si="1"/>
         <v>929</v>
       </c>
-      <c r="T14" s="106">
-        <f t="shared" si="1"/>
+      <c r="T14" s="98">
+        <f t="shared" si="3"/>
         <v>0.50434310532030402</v>
       </c>
       <c r="U14" s="70"/>
       <c r="V14" s="70"/>
       <c r="X14" s="70"/>
     </row>
-    <row r="15" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
         <v>41</v>
       </c>
@@ -38890,26 +38933,26 @@
         <v>296</v>
       </c>
       <c r="Q15" s="26">
-        <f>K15-E15</f>
+        <f t="shared" si="0"/>
         <v>-73</v>
       </c>
-      <c r="R15" s="107">
-        <f t="shared" si="0"/>
+      <c r="R15" s="99">
+        <f t="shared" si="2"/>
         <v>4.7371836469824791E-2</v>
       </c>
       <c r="S15" s="23">
-        <f>H15-E15</f>
+        <f t="shared" si="1"/>
         <v>1625</v>
       </c>
-      <c r="T15" s="106">
-        <f t="shared" si="1"/>
+      <c r="T15" s="98">
+        <f t="shared" si="3"/>
         <v>0.51326595072646874</v>
       </c>
       <c r="U15" s="70"/>
       <c r="V15" s="70"/>
       <c r="X15" s="70"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>35</v>
       </c>
@@ -38959,19 +39002,19 @@
         <v>3714</v>
       </c>
       <c r="Q16" s="26">
-        <f>K16-E16</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="R16" s="107">
-        <f t="shared" si="0"/>
+      <c r="R16" s="99">
+        <f t="shared" si="2"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="S16" s="23">
-        <f>H16-E16</f>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="T16" s="106">
-        <f t="shared" si="1"/>
+      <c r="T16" s="98">
+        <f t="shared" si="3"/>
         <v>0.73333333333333328</v>
       </c>
       <c r="U16" s="26"/>
@@ -38979,7 +39022,7 @@
       <c r="W16" s="26"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>45</v>
       </c>
@@ -39029,26 +39072,26 @@
         <v>343</v>
       </c>
       <c r="Q17" s="26">
-        <f>K17-E17</f>
+        <f t="shared" si="0"/>
         <v>-169</v>
       </c>
-      <c r="R17" s="107">
-        <f t="shared" si="0"/>
+      <c r="R17" s="99">
+        <f t="shared" si="2"/>
         <v>7.9119850187265917E-2</v>
       </c>
       <c r="S17" s="23">
-        <f>H17-E17</f>
+        <f t="shared" si="1"/>
         <v>1354</v>
       </c>
-      <c r="T17" s="106">
-        <f t="shared" si="1"/>
+      <c r="T17" s="98">
+        <f t="shared" si="3"/>
         <v>0.38796561604584529</v>
       </c>
       <c r="V17" s="70"/>
       <c r="W17" s="70"/>
       <c r="X17" s="70"/>
     </row>
-    <row r="18" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
         <v>40</v>
       </c>
@@ -39098,26 +39141,26 @@
         <v>384</v>
       </c>
       <c r="Q18" s="26">
-        <f>K18-E18</f>
+        <f t="shared" si="0"/>
         <v>-10958</v>
       </c>
-      <c r="R18" s="107">
-        <f t="shared" si="0"/>
+      <c r="R18" s="99">
+        <f t="shared" si="2"/>
         <v>0.14338615338314381</v>
       </c>
       <c r="S18" s="23">
-        <f>H18-E18</f>
+        <f t="shared" si="1"/>
         <v>12456</v>
       </c>
-      <c r="T18" s="106">
-        <f t="shared" si="1"/>
+      <c r="T18" s="98">
+        <f t="shared" si="3"/>
         <v>0.14014559119702066</v>
       </c>
       <c r="U18" s="70"/>
       <c r="V18" s="70"/>
       <c r="W18" s="70"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>41</v>
       </c>
@@ -39167,19 +39210,19 @@
         <v>6978</v>
       </c>
       <c r="Q19" s="26">
-        <f>K19-E19</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="R19" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="S19" s="23">
-        <f>H19-E19</f>
+        <f t="shared" si="1"/>
         <v>561</v>
       </c>
-      <c r="T19" s="106">
-        <f t="shared" si="1"/>
+      <c r="T19" s="98">
+        <f t="shared" si="3"/>
         <v>0.89331210191082799</v>
       </c>
       <c r="U19" s="26"/>
@@ -39187,7 +39230,7 @@
       <c r="W19" s="9"/>
       <c r="X19" s="26"/>
     </row>
-    <row r="20" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <v>45</v>
       </c>
@@ -39237,26 +39280,26 @@
         <v>1591</v>
       </c>
       <c r="Q20" s="26">
-        <f>K20-E20</f>
+        <f t="shared" si="0"/>
         <v>-108368</v>
       </c>
-      <c r="R20" s="107">
-        <f t="shared" si="0"/>
+      <c r="R20" s="99">
+        <f t="shared" si="2"/>
         <v>0.16973129428569639</v>
       </c>
       <c r="S20" s="23">
-        <f>H20-E20</f>
+        <f t="shared" si="1"/>
         <v>119293</v>
       </c>
-      <c r="T20" s="106">
-        <f t="shared" si="1"/>
+      <c r="T20" s="98">
+        <f t="shared" si="3"/>
         <v>0.15742826564048559</v>
       </c>
       <c r="U20" s="70"/>
       <c r="V20" s="70"/>
       <c r="X20" s="70"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43</v>
       </c>
@@ -39306,19 +39349,19 @@
         <v>15774</v>
       </c>
       <c r="Q21" s="26">
-        <f>K21-E21</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="R21" s="107">
-        <f t="shared" si="0"/>
+      <c r="R21" s="99">
+        <f t="shared" si="2"/>
         <v>1.0638297872340425E-2</v>
       </c>
       <c r="S21" s="23">
-        <f>H21-E21</f>
+        <f t="shared" si="1"/>
         <v>668</v>
       </c>
-      <c r="T21" s="106">
-        <f t="shared" si="1"/>
+      <c r="T21" s="98">
+        <f t="shared" si="3"/>
         <v>0.87664041994750652</v>
       </c>
       <c r="U21" s="26"/>
@@ -39326,7 +39369,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="26"/>
     </row>
-    <row r="22" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
         <v>73</v>
       </c>
@@ -39376,26 +39419,26 @@
         <v>11278</v>
       </c>
       <c r="Q22" s="26">
-        <f>K22-E22</f>
+        <f t="shared" si="0"/>
         <v>-66956</v>
       </c>
-      <c r="R22" s="107">
-        <f t="shared" si="0"/>
+      <c r="R22" s="99">
+        <f t="shared" si="2"/>
         <v>0.14217160135215479</v>
       </c>
       <c r="S22" s="23">
-        <f>H22-E22</f>
+        <f t="shared" si="1"/>
         <v>47684</v>
       </c>
-      <c r="T22" s="106">
-        <f t="shared" si="1"/>
+      <c r="T22" s="98">
+        <f t="shared" si="3"/>
         <v>9.194116875804996E-2</v>
       </c>
       <c r="U22" s="70"/>
       <c r="V22" s="70"/>
       <c r="X22" s="70"/>
     </row>
-    <row r="23" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
         <v>71</v>
       </c>
@@ -39445,26 +39488,26 @@
         <v>11909</v>
       </c>
       <c r="Q23" s="26">
-        <f>K23-E23</f>
+        <f t="shared" si="0"/>
         <v>-1250</v>
       </c>
-      <c r="R23" s="107">
-        <f t="shared" si="0"/>
+      <c r="R23" s="99">
+        <f t="shared" si="2"/>
         <v>7.7644574197155106E-2</v>
       </c>
       <c r="S23" s="23">
-        <f>H23-E23</f>
+        <f t="shared" si="1"/>
         <v>21953</v>
       </c>
-      <c r="T23" s="106">
-        <f t="shared" si="1"/>
+      <c r="T23" s="98">
+        <f t="shared" si="3"/>
         <v>0.57692105539787664</v>
       </c>
       <c r="U23" s="70"/>
       <c r="V23" s="70"/>
       <c r="X23" s="70"/>
     </row>
-    <row r="24" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
         <v>139</v>
       </c>
@@ -39502,20 +39545,20 @@
       <c r="O24" s="36"/>
       <c r="P24" s="37"/>
       <c r="Q24" s="26">
-        <f>K24-E24</f>
+        <f t="shared" si="0"/>
         <v>-26881</v>
       </c>
-      <c r="R24" s="107">
-        <f t="shared" si="0"/>
+      <c r="R24" s="99">
+        <f t="shared" si="2"/>
         <v>0.11163205980066446</v>
       </c>
       <c r="S24" s="23"/>
-      <c r="T24" s="106"/>
+      <c r="T24" s="98"/>
       <c r="U24" s="70"/>
       <c r="V24" s="70"/>
       <c r="X24" s="70"/>
     </row>
-    <row r="25" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>53</v>
       </c>
@@ -39565,26 +39608,26 @@
         <v>31468</v>
       </c>
       <c r="Q25" s="26">
-        <f>K25-E25</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R25" s="107">
-        <f t="shared" si="0"/>
+      <c r="R25" s="99">
+        <f t="shared" si="2"/>
         <v>-2.5806451612903226E-2</v>
       </c>
       <c r="S25" s="23">
         <f>H25-E25</f>
         <v>8618</v>
       </c>
-      <c r="T25" s="106">
-        <f t="shared" si="1"/>
+      <c r="T25" s="98">
+        <f t="shared" si="3"/>
         <v>0.98233215547703179</v>
       </c>
       <c r="U25" s="26"/>
       <c r="V25" s="26"/>
       <c r="X25" s="26"/>
     </row>
-    <row r="26" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>60</v>
       </c>
@@ -39634,26 +39677,26 @@
         <v>62262</v>
       </c>
       <c r="Q26" s="26">
-        <f>K26-E26</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="R26" s="107">
-        <f t="shared" si="0"/>
+      <c r="R26" s="99">
+        <f t="shared" si="2"/>
         <v>-4.6875E-2</v>
       </c>
       <c r="S26" s="23">
         <f>H26-E26</f>
         <v>47663</v>
       </c>
-      <c r="T26" s="106">
-        <f t="shared" si="1"/>
+      <c r="T26" s="98">
+        <f t="shared" si="3"/>
         <v>0.99598788005433081</v>
       </c>
       <c r="U26" s="26"/>
       <c r="V26" s="26"/>
       <c r="X26" s="26"/>
     </row>
-    <row r="27" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>78</v>
       </c>
@@ -39703,18 +39746,18 @@
         <v>381815</v>
       </c>
       <c r="Q27" s="26">
-        <f>K27-E27</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R27" s="107">
-        <f t="shared" si="0"/>
+      <c r="R27" s="99">
+        <f t="shared" si="2"/>
         <v>-6.2111801242236021E-3</v>
       </c>
       <c r="S27" s="23">
         <f>H27-E27</f>
         <v>461214</v>
       </c>
-      <c r="T27" s="106">
+      <c r="T27" s="98">
         <f>(H27-E27)/H27</f>
         <v>0.99895385934931347</v>
       </c>
@@ -39722,7 +39765,7 @@
       <c r="V27" s="25"/>
       <c r="X27" s="26"/>
     </row>
-    <row r="28" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>79</v>
       </c>
@@ -39772,18 +39815,18 @@
         <v>451553</v>
       </c>
       <c r="Q28" s="26">
-        <f>K28-E28</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R28" s="107">
-        <f t="shared" si="0"/>
+      <c r="R28" s="99">
+        <f t="shared" si="2"/>
         <v>-4.8426150121065378E-3</v>
       </c>
       <c r="S28" s="23">
         <f>H28-E28</f>
         <v>727538</v>
       </c>
-      <c r="T28" s="106">
+      <c r="T28" s="98">
         <f>(H28-E28)/H28</f>
         <v>0.9994326541209505</v>
       </c>
@@ -39791,7 +39834,7 @@
       <c r="V28" s="25"/>
       <c r="X28" s="26"/>
     </row>
-    <row r="29" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>83</v>
       </c>
@@ -39829,16 +39872,16 @@
       <c r="O29" s="36"/>
       <c r="P29" s="37"/>
       <c r="Q29" s="26">
-        <f>K29-E29</f>
+        <f t="shared" si="0"/>
         <v>-39</v>
       </c>
-      <c r="R29" s="107">
-        <f t="shared" si="0"/>
+      <c r="R29" s="99">
+        <f t="shared" si="2"/>
         <v>6.3311688311688305E-2</v>
       </c>
       <c r="S29" s="23"/>
     </row>
-    <row r="30" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>98</v>
       </c>
@@ -39876,16 +39919,16 @@
       <c r="O30" s="36"/>
       <c r="P30" s="37"/>
       <c r="Q30" s="26">
-        <f>K30-E30</f>
+        <f t="shared" si="0"/>
         <v>-52</v>
       </c>
-      <c r="R30" s="107">
-        <f t="shared" si="0"/>
+      <c r="R30" s="99">
+        <f t="shared" si="2"/>
         <v>6.235011990407674E-2</v>
       </c>
       <c r="S30" s="23"/>
     </row>
-    <row r="31" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>103</v>
       </c>
@@ -39923,16 +39966,16 @@
       <c r="O31" s="36"/>
       <c r="P31" s="37"/>
       <c r="Q31" s="26">
-        <f>K31-E31</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="R31" s="107">
-        <f t="shared" si="0"/>
+      <c r="R31" s="99">
+        <f t="shared" si="2"/>
         <v>-2.6540284360189573E-2</v>
       </c>
       <c r="S31" s="23"/>
     </row>
-    <row r="32" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>128</v>
       </c>
@@ -39970,16 +40013,16 @@
       <c r="O32" s="36"/>
       <c r="P32" s="37"/>
       <c r="Q32" s="26">
-        <f>K32-E32</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="R32" s="107">
-        <f t="shared" si="0"/>
+      <c r="R32" s="99">
+        <f t="shared" si="2"/>
         <v>-7.0635721493440967E-3</v>
       </c>
       <c r="S32" s="23"/>
     </row>
-    <row r="33" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>163</v>
       </c>
@@ -40017,16 +40060,16 @@
       <c r="O33" s="36"/>
       <c r="P33" s="37"/>
       <c r="Q33" s="26">
-        <f>K33-E33</f>
+        <f t="shared" si="0"/>
         <v>-172</v>
       </c>
-      <c r="R33" s="107">
-        <f t="shared" si="0"/>
+      <c r="R33" s="99">
+        <f t="shared" si="2"/>
         <v>3.1746031746031744E-2</v>
       </c>
       <c r="S33" s="23"/>
     </row>
-    <row r="34" spans="1:19" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>193</v>
       </c>
@@ -40064,30 +40107,30 @@
       <c r="O34" s="39"/>
       <c r="P34" s="40"/>
       <c r="Q34" s="26">
-        <f>K34-E34</f>
+        <f t="shared" si="0"/>
         <v>-196</v>
       </c>
-      <c r="R34" s="107">
-        <f t="shared" si="0"/>
+      <c r="R34" s="99">
+        <f t="shared" si="2"/>
         <v>2.9969418960244649E-2</v>
       </c>
       <c r="S34" s="23"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="103"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="107"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -40101,7 +40144,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="10"/>
@@ -40115,7 +40158,7 @@
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="10"/>
@@ -40129,7 +40172,7 @@
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="10"/>
@@ -40143,7 +40186,7 @@
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="10"/>
@@ -40157,7 +40200,7 @@
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="10"/>
@@ -40171,7 +40214,7 @@
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="10"/>
@@ -40185,7 +40228,7 @@
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="10"/>
@@ -40199,7 +40242,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="10"/>
@@ -40213,7 +40256,7 @@
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="10"/>
@@ -40227,7 +40270,7 @@
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="10"/>
@@ -40241,7 +40284,7 @@
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="10"/>
@@ -40255,7 +40298,7 @@
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="10"/>
@@ -40269,7 +40312,7 @@
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="10"/>
@@ -40283,7 +40326,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="10"/>
@@ -40297,7 +40340,7 @@
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="10"/>
@@ -40311,7 +40354,7 @@
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="19"/>
@@ -40325,7 +40368,7 @@
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="10"/>
@@ -40339,7 +40382,7 @@
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="19"/>
@@ -40353,7 +40396,7 @@
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="10"/>
@@ -40367,7 +40410,7 @@
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="19"/>
@@ -40381,7 +40424,7 @@
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="19"/>
@@ -40395,7 +40438,7 @@
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="21"/>
@@ -40409,7 +40452,7 @@
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="21"/>
@@ -40423,7 +40466,7 @@
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="21"/>
@@ -40437,7 +40480,7 @@
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="21"/>
@@ -40451,7 +40494,7 @@
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="21"/>
@@ -40465,7 +40508,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="21"/>
@@ -40479,7 +40522,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="21"/>
@@ -40493,7 +40536,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="21"/>
@@ -40507,7 +40550,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="21"/>
@@ -40521,7 +40564,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="21"/>
@@ -40535,7 +40578,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="21"/>
@@ -40554,16 +40597,16 @@
     <sortCondition ref="C3:C34"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="K36:L36"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -40575,39 +40618,43 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection sqref="A1:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="27" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="96" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="96" t="s">
+      <c r="F1" s="101"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="98"/>
-      <c r="J1" s="97"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="102"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -40621,7 +40668,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
@@ -40630,7 +40677,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>4</v>
@@ -40639,10 +40686,10 @@
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -40678,7 +40725,7 @@
         <v>0.86202762179389891</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>200</v>
       </c>
@@ -40716,7 +40763,7 @@
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>300</v>
       </c>
@@ -40754,7 +40801,7 @@
       <c r="M5" s="27"/>
       <c r="N5" s="27"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>400</v>
       </c>
@@ -40792,7 +40839,7 @@
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>500</v>
       </c>
@@ -40830,7 +40877,7 @@
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>600</v>
       </c>
@@ -40887,54 +40934,54 @@
       <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="96" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="96" t="s">
+      <c r="F1" s="101"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="98"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="96" t="s">
+      <c r="I1" s="101"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="99" t="s">
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="100"/>
-      <c r="P1" s="101"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="105"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -40948,7 +40995,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>4</v>
@@ -40957,7 +41004,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>4</v>
@@ -40966,7 +41013,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
@@ -40975,7 +41022,7 @@
         <v>12</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
@@ -40984,7 +41031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>11</v>
       </c>
@@ -41034,7 +41081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>19</v>
       </c>
@@ -41084,7 +41131,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>22</v>
       </c>
@@ -41134,7 +41181,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>28</v>
       </c>
@@ -41184,7 +41231,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>27</v>
       </c>
@@ -41234,7 +41281,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>35</v>
       </c>
@@ -41284,7 +41331,7 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>41</v>
       </c>
@@ -41334,7 +41381,7 @@
         <v>6978</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43</v>
       </c>
@@ -41384,7 +41431,7 @@
         <v>15774</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>53</v>
       </c>
@@ -41434,7 +41481,7 @@
         <v>31468</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>60</v>
       </c>
@@ -41484,7 +41531,7 @@
         <v>62262</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>78</v>
       </c>
@@ -41534,7 +41581,7 @@
         <v>381815</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>79</v>
       </c>
@@ -41584,7 +41631,7 @@
         <v>451553</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>83</v>
       </c>
@@ -41622,7 +41669,7 @@
       <c r="O15" s="36"/>
       <c r="P15" s="37"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>98</v>
       </c>
@@ -41660,7 +41707,7 @@
       <c r="O16" s="36"/>
       <c r="P16" s="37"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>103</v>
       </c>
@@ -41698,7 +41745,7 @@
       <c r="O17" s="36"/>
       <c r="P17" s="37"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>128</v>
       </c>
@@ -41736,7 +41783,7 @@
       <c r="O18" s="36"/>
       <c r="P18" s="37"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>163</v>
       </c>
@@ -41774,7 +41821,7 @@
       <c r="O19" s="36"/>
       <c r="P19" s="37"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>193</v>
       </c>
@@ -41812,36 +41859,36 @@
       <c r="O20" s="39"/>
       <c r="P20" s="40"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="96" t="s">
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="96" t="s">
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="98"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="96" t="s">
+      <c r="F22" s="101"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="98"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="96" t="s">
+      <c r="I22" s="101"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="99" t="s">
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="O22" s="100"/>
-      <c r="P22" s="101"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="105"/>
     </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>0</v>
       </c>
@@ -41855,7 +41902,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>4</v>
@@ -41864,7 +41911,7 @@
         <v>12</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>4</v>
@@ -41873,7 +41920,7 @@
         <v>12</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>4</v>
@@ -41882,7 +41929,7 @@
         <v>12</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O23" s="17" t="s">
         <v>4</v>
@@ -41891,7 +41938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
         <v>17</v>
       </c>
@@ -41941,7 +41988,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
         <v>24</v>
       </c>
@@ -41991,7 +42038,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
         <v>43</v>
       </c>
@@ -42041,7 +42088,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
         <v>31</v>
       </c>
@@ -42091,7 +42138,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
         <v>53</v>
       </c>
@@ -42141,7 +42188,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
         <v>38</v>
       </c>
@@ -42191,7 +42238,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
         <v>34</v>
       </c>
@@ -42241,7 +42288,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
         <v>41</v>
       </c>
@@ -42291,7 +42338,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
         <v>45</v>
       </c>
@@ -42341,7 +42388,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
         <v>40</v>
       </c>
@@ -42391,7 +42438,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
         <v>45</v>
       </c>
@@ -42441,7 +42488,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
         <v>73</v>
       </c>
@@ -42491,7 +42538,7 @@
         <v>11278</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
         <v>71</v>
       </c>
@@ -42541,7 +42588,7 @@
         <v>11909</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="50">
         <v>139</v>
       </c>
@@ -42584,16 +42631,16 @@
     <sortCondition ref="C3:C20"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -42608,16 +42655,16 @@
       <selection sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -42631,19 +42678,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="71" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -42673,7 +42720,7 @@
       </c>
       <c r="I2" s="78"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>17</v>
       </c>
@@ -42703,7 +42750,7 @@
       </c>
       <c r="I3" s="78"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>19</v>
       </c>
@@ -42733,7 +42780,7 @@
       </c>
       <c r="I4" s="78"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>22</v>
       </c>
@@ -42763,7 +42810,7 @@
       </c>
       <c r="I5" s="78"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>24</v>
       </c>
@@ -42793,7 +42840,7 @@
       </c>
       <c r="I6" s="78"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>27</v>
       </c>
@@ -42823,7 +42870,7 @@
       </c>
       <c r="I7" s="78"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>28</v>
       </c>
@@ -42853,7 +42900,7 @@
       </c>
       <c r="I8" s="78"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>31</v>
       </c>
@@ -42883,7 +42930,7 @@
       </c>
       <c r="I9" s="78"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>34</v>
       </c>
@@ -42913,7 +42960,7 @@
       </c>
       <c r="I10" s="78"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>35</v>
       </c>
@@ -42943,7 +42990,7 @@
       </c>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>38</v>
       </c>
@@ -42973,7 +43020,7 @@
       </c>
       <c r="I12" s="78"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>40</v>
       </c>
@@ -43003,7 +43050,7 @@
       </c>
       <c r="I13" s="78"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>41</v>
       </c>
@@ -43033,7 +43080,7 @@
       </c>
       <c r="I14" s="78"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>41</v>
       </c>
@@ -43063,7 +43110,7 @@
       </c>
       <c r="I15" s="78"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>43</v>
       </c>
@@ -43093,7 +43140,7 @@
       </c>
       <c r="I16" s="78"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43</v>
       </c>
@@ -43123,7 +43170,7 @@
       </c>
       <c r="I17" s="78"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
         <v>45</v>
       </c>
@@ -43153,7 +43200,7 @@
       </c>
       <c r="I18" s="78"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <v>45</v>
       </c>
@@ -43183,7 +43230,7 @@
       </c>
       <c r="I19" s="78"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <v>53</v>
       </c>
@@ -43213,7 +43260,7 @@
       </c>
       <c r="I20" s="78"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>53</v>
       </c>
@@ -43243,7 +43290,7 @@
       </c>
       <c r="I21" s="78"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>60</v>
       </c>
@@ -43273,7 +43320,7 @@
       </c>
       <c r="I22" s="78"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
         <v>71</v>
       </c>
@@ -43303,7 +43350,7 @@
       </c>
       <c r="I23" s="78"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
         <v>73</v>
       </c>
@@ -43333,7 +43380,7 @@
       </c>
       <c r="I24" s="78"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>78</v>
       </c>
@@ -43363,7 +43410,7 @@
       </c>
       <c r="I25" s="78"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>79</v>
       </c>
@@ -43393,7 +43440,7 @@
       </c>
       <c r="I26" s="78"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>83</v>
       </c>
@@ -43423,7 +43470,7 @@
       </c>
       <c r="I27" s="78"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>98</v>
       </c>
@@ -43453,7 +43500,7 @@
       </c>
       <c r="I28" s="78"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>103</v>
       </c>
@@ -43483,7 +43530,7 @@
       </c>
       <c r="I29" s="78"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>128</v>
       </c>
@@ -43513,7 +43560,7 @@
       </c>
       <c r="I30" s="78"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
         <v>139</v>
       </c>
@@ -43543,7 +43590,7 @@
       </c>
       <c r="I31" s="78"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>163</v>
       </c>
@@ -43573,7 +43620,7 @@
       </c>
       <c r="I32" s="78"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>193</v>
       </c>
@@ -43603,8 +43650,8 @@
       </c>
       <c r="I33" s="78"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
         <v>0</v>
       </c>
@@ -43618,19 +43665,19 @@
         <v>3</v>
       </c>
       <c r="E35" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="71" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>11</v>
       </c>
@@ -43659,7 +43706,7 @@
         <v>0.70909090909090911</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>19</v>
       </c>
@@ -43688,7 +43735,7 @@
         <v>0.46783625730994149</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>27</v>
       </c>
@@ -43717,7 +43764,7 @@
         <v>0.34472934472934474</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -43746,7 +43793,7 @@
         <v>0.27226890756302519</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43</v>
       </c>
@@ -43775,7 +43822,7 @@
         <v>0.22480620155038761</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>83</v>
       </c>
@@ -43804,7 +43851,7 @@
         <v>0.11989421099030267</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>163</v>
       </c>
@@ -43833,7 +43880,7 @@
         <v>6.1955616147845186E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>22</v>
       </c>
@@ -43862,7 +43909,7 @@
         <v>0.72058823529411764</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -43891,7 +43938,7 @@
         <v>0.43225806451612903</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>60</v>
       </c>
@@ -43920,7 +43967,7 @@
         <v>0.30707070707070705</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>79</v>
       </c>
@@ -43949,7 +43996,7 @@
         <v>0.23787258912916423</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>98</v>
       </c>
@@ -43978,7 +44025,7 @@
         <v>0.19406392694063926</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>28</v>
       </c>
@@ -44007,7 +44054,7 @@
         <v>0.70476190476190481</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>193</v>
       </c>
@@ -44036,7 +44083,7 @@
         <v>0.10095538264552349</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="28">
         <v>53</v>
       </c>
@@ -44065,7 +44112,7 @@
         <v>0.27576197387518142</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="28">
         <v>24</v>
       </c>
@@ -44094,7 +44141,7 @@
         <v>0.53694581280788178</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -44123,7 +44170,7 @@
         <v>0.40620782726045884</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>78</v>
       </c>
@@ -44152,7 +44199,7 @@
         <v>0.28446115288220553</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>103</v>
       </c>
@@ -44181,7 +44228,7 @@
         <v>0.21873873873873872</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>128</v>
       </c>
@@ -44210,7 +44257,7 @@
         <v>0.17765310892940628</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="28">
         <v>17</v>
       </c>
@@ -44239,7 +44286,7 @@
         <v>0.81385281385281383</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="28">
         <v>73</v>
       </c>
@@ -44268,7 +44315,7 @@
         <v>0.28533801580333629</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="28">
         <v>34</v>
       </c>
@@ -44297,7 +44344,7 @@
         <v>0.73399014778325122</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="28">
         <v>43</v>
       </c>
@@ -44326,7 +44373,7 @@
         <v>0.450354609929078</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="28">
         <v>40</v>
       </c>
@@ -44355,7 +44402,7 @@
         <v>0.48809523809523808</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="28">
         <v>31</v>
       </c>
@@ -44384,7 +44431,7 @@
         <v>0.5865853658536585</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="28">
         <v>71</v>
       </c>
@@ -44413,7 +44460,7 @@
         <v>0.3836829836829837</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="28">
         <v>45</v>
       </c>
@@ -44442,7 +44489,7 @@
         <v>0.44237288135593222</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="28">
         <v>139</v>
       </c>
@@ -44471,7 +44518,7 @@
         <v>0.2189316137250219</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="28">
         <v>38</v>
       </c>
@@ -44500,7 +44547,7 @@
         <v>0.37484197218710491</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="28">
         <v>41</v>
       </c>
@@ -44529,7 +44576,7 @@
         <v>0.35808023997000377</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="50">
         <v>45</v>
       </c>
